--- a/Guild Digital/Example CHT application/forms/app/spot_check.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/spot_check.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="242">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -576,19 +576,39 @@
     <t xml:space="preserve">group_spot_check</t>
   </si>
   <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h3 style="text-align:center; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">background-color: yellow;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Summary&lt;/h3&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_spot_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spot Check Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
   </si>
   <si>
     <r>
@@ -634,7 +654,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">background-color:</t>
+      <t xml:space="preserve">background-color: </t>
     </r>
     <r>
       <rPr>
@@ -644,16 +664,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">#FFD580</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
+      <t xml:space="preserve">#FFA500;</t>
     </r>
     <r>
       <rPr>
@@ -1184,6 +1195,12 @@
     <t xml:space="preserve">s_wash_assessment</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_hh_pass_hh_wash</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1192,7 +1209,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**</t>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WASH facility pass: ${</t>
     </r>
     <r>
       <rPr>
@@ -1202,7 +1229,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WASH**</t>
+      <t xml:space="preserve">hh_pass_hh_wash}</t>
     </r>
     <r>
       <rPr>
@@ -1212,11 +1239,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/h4&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_hh_pass_hh_wash</t>
+      <t xml:space="preserve"> &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_rumours_and_alert</t>
   </si>
   <si>
     <r>
@@ -1227,17 +1254,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rumours and Alerts**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h4&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_rumours_and_alerts_present</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WASH facility pass: ${</t>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1247,8 +1299,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hh_pass_hh_wash}</t>
-    </r>
+      <t xml:space="preserve">Rumours and alerts present: ${rumours_and_alerts_present} &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_record_rumour</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1257,13 +1314,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_rumours_and_alert</t>
-  </si>
-  <si>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Record rumour: ${record_rumour}</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1272,7 +1334,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**</t>
+      <t xml:space="preserve"> &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_vht_feedback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**Overall VHT Performance</t>
     </r>
     <r>
       <rPr>
@@ -1282,7 +1359,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Rumours and Alerts**</t>
+      <t xml:space="preserve">**</t>
     </r>
     <r>
       <rPr>
@@ -1296,7 +1373,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">s_rumours_and_alerts_present</t>
+    <t xml:space="preserve">s_vht_is_supportive</t>
   </si>
   <si>
     <r>
@@ -1307,7 +1384,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Referral support</t>
     </r>
     <r>
       <rPr>
@@ -1317,11 +1394,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Rumours and alerts present: ${rumours_and_alerts_present} &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_record_rumour</t>
+      <t xml:space="preserve">: ${vht_is_supportive} &lt;/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_vht_has_treated</t>
   </si>
   <si>
     <r>
@@ -1332,7 +1409,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
+      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Treatment provision</t>
     </r>
     <r>
       <rPr>
@@ -1342,7 +1419,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Record rumour: ${record_rumour}</t>
+      <t xml:space="preserve">: ${vht_has_treated}</t>
     </r>
     <r>
       <rPr>
@@ -1356,7 +1433,39 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">s_vht_feedback</t>
+    <t xml:space="preserve">s_followup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Follow Up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1367,7 +1476,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center;background-color:#add8e6;"&gt;**Overall VHT Performance</t>
+      <t xml:space="preserve">selected(${is_vht_knowledgeable</t>
     </r>
     <r>
       <rPr>
@@ -1377,33 +1486,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h4&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_vht_is_supportive</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Referral support</t>
-    </r>
+      <t xml:space="preserve">},  ‘no’)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s_followup_note</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1412,22 +1501,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: ${vht_is_supportive} &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_vht_has_treated</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;Treatment provision</t>
+      <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You will  receive a mentorship follow-up task in due in 5 days</t>
     </r>
     <r>
       <rPr>
@@ -1437,55 +1521,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: ${vht_has_treated}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/h5&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s_followup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Up</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">selected(${is_vht_knowledgeable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">},  ‘no’)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_followup_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You will  receive a mentorship follow-up task in due in 5 days</t>
+      <t xml:space="preserve">&lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1637,12 +1674,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1667,6 +1698,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1776,11 +1813,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1788,7 +1829,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1796,15 +1837,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1812,11 +1849,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2013,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C90" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3671,9 +3708,7 @@
       <c r="D71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -4136,127 +4171,116 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-      <c r="AME86" s="12"/>
-      <c r="AMF86" s="12"/>
-      <c r="AMG86" s="12"/>
-      <c r="AMH86" s="12"/>
-      <c r="AMI86" s="12"/>
-      <c r="AMJ86" s="12"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="AME86" s="11"/>
+      <c r="AMF86" s="11"/>
+      <c r="AMG86" s="11"/>
+      <c r="AMH86" s="11"/>
+      <c r="AMI86" s="11"/>
+      <c r="AMJ86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-      <c r="AME87" s="12"/>
-      <c r="AMF87" s="12"/>
-      <c r="AMG87" s="12"/>
-      <c r="AMH87" s="12"/>
-      <c r="AMI87" s="12"/>
-      <c r="AMJ87" s="12"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="AME87" s="11"/>
+      <c r="AMF87" s="11"/>
+      <c r="AMG87" s="11"/>
+      <c r="AMH87" s="11"/>
+      <c r="AMI87" s="11"/>
+      <c r="AMJ87" s="11"/>
+    </row>
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="12"/>
+      <c r="AMJ88" s="11"/>
+    </row>
+    <row r="89" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="4"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="AME88" s="12"/>
-      <c r="AMF88" s="12"/>
-      <c r="AMG88" s="12"/>
-      <c r="AMH88" s="12"/>
-      <c r="AMI88" s="12"/>
-      <c r="AMJ88" s="12"/>
-    </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="AMJ89" s="12"/>
-    </row>
-    <row r="90" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="4"/>
+      <c r="E90" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
@@ -4274,12 +4298,12 @@
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P91" s="2"/>
@@ -4294,57 +4318,58 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AMJ92" s="11"/>
+    </row>
+    <row r="93" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>180</v>
-      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AMJ93" s="12"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="14"/>
+      <c r="D94" s="13"/>
       <c r="E94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4365,14 +4390,14 @@
         <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="14"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -4391,12 +4416,12 @@
         <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="1" t="s">
         <v>113</v>
       </c>
@@ -4412,242 +4437,1250 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="14"/>
       <c r="E97" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="AMJ97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="D98" s="13"/>
       <c r="E98" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AMJ98" s="12"/>
-    </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ98" s="11"/>
+    </row>
+    <row r="99" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="14"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AMJ99" s="12"/>
-    </row>
-    <row r="100" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D100" s="14"/>
+      <c r="D100" s="13"/>
       <c r="E100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
+      <c r="AMJ100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AMJ101" s="12"/>
+      <c r="AMJ101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="13"/>
+      <c r="AMJ102" s="11"/>
+    </row>
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AMJ102" s="12"/>
-    </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C103" s="4"/>
-      <c r="D103" s="14"/>
-      <c r="AMJ103" s="12"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="15"/>
+      <c r="AMJ103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="16"/>
-      <c r="AMJ104" s="12"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="15"/>
+      <c r="AMJ104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="16"/>
-      <c r="AMJ105" s="12"/>
+      <c r="E105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="AMJ105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="16"/>
-      <c r="AMJ106" s="12"/>
+      <c r="F106" s="15"/>
+      <c r="AMJ106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="AMJ107" s="12"/>
+      <c r="F107" s="15"/>
+      <c r="AMJ107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="AMJ108" s="12"/>
+      <c r="F108" s="15"/>
+      <c r="AMJ108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="AMJ109" s="12"/>
+      <c r="F109" s="15"/>
+      <c r="AMJ109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="F110" s="15"/>
+      <c r="AMJ110" s="11"/>
+    </row>
+    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="AMJ110" s="12"/>
-    </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="D111" s="18"/>
+      <c r="E111" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="AMJ111" s="12"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="19"/>
+      <c r="Y111" s="19"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="13"/>
+      <c r="AB111" s="13"/>
+      <c r="AC111" s="13"/>
+      <c r="AD111" s="13"/>
+      <c r="AE111" s="13"/>
+      <c r="AF111" s="13"/>
+      <c r="AG111" s="13"/>
+      <c r="AH111" s="13"/>
+      <c r="AI111" s="13"/>
+      <c r="AJ111" s="13"/>
+      <c r="AK111" s="13"/>
+      <c r="AL111" s="13"/>
+      <c r="AM111" s="13"/>
+      <c r="AN111" s="13"/>
+      <c r="AO111" s="13"/>
+      <c r="AP111" s="13"/>
+      <c r="AQ111" s="13"/>
+      <c r="AR111" s="13"/>
+      <c r="AS111" s="13"/>
+      <c r="AT111" s="13"/>
+      <c r="AU111" s="13"/>
+      <c r="AV111" s="13"/>
+      <c r="AW111" s="13"/>
+      <c r="AX111" s="13"/>
+      <c r="AY111" s="13"/>
+      <c r="AZ111" s="13"/>
+      <c r="BA111" s="13"/>
+      <c r="BB111" s="13"/>
+      <c r="BC111" s="13"/>
+      <c r="BD111" s="13"/>
+      <c r="BE111" s="13"/>
+      <c r="BF111" s="13"/>
+      <c r="BG111" s="13"/>
+      <c r="BH111" s="13"/>
+      <c r="BI111" s="13"/>
+      <c r="BJ111" s="13"/>
+      <c r="BK111" s="13"/>
+      <c r="BL111" s="13"/>
+      <c r="BM111" s="13"/>
+      <c r="BN111" s="13"/>
+      <c r="BO111" s="13"/>
+      <c r="BP111" s="13"/>
+      <c r="BQ111" s="13"/>
+      <c r="BR111" s="13"/>
+      <c r="BS111" s="13"/>
+      <c r="BT111" s="13"/>
+      <c r="BU111" s="13"/>
+      <c r="BV111" s="13"/>
+      <c r="BW111" s="13"/>
+      <c r="BX111" s="13"/>
+      <c r="BY111" s="13"/>
+      <c r="BZ111" s="13"/>
+      <c r="CA111" s="13"/>
+      <c r="CB111" s="13"/>
+      <c r="CC111" s="13"/>
+      <c r="CD111" s="13"/>
+      <c r="CE111" s="13"/>
+      <c r="CF111" s="13"/>
+      <c r="CG111" s="13"/>
+      <c r="CH111" s="13"/>
+      <c r="CI111" s="13"/>
+      <c r="CJ111" s="13"/>
+      <c r="CK111" s="13"/>
+      <c r="CL111" s="13"/>
+      <c r="CM111" s="13"/>
+      <c r="CN111" s="13"/>
+      <c r="CO111" s="13"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
+      <c r="CR111" s="13"/>
+      <c r="CS111" s="13"/>
+      <c r="CT111" s="13"/>
+      <c r="CU111" s="13"/>
+      <c r="CV111" s="13"/>
+      <c r="CW111" s="13"/>
+      <c r="CX111" s="13"/>
+      <c r="CY111" s="13"/>
+      <c r="CZ111" s="13"/>
+      <c r="DA111" s="13"/>
+      <c r="DB111" s="13"/>
+      <c r="DC111" s="13"/>
+      <c r="DD111" s="13"/>
+      <c r="DE111" s="13"/>
+      <c r="DF111" s="13"/>
+      <c r="DG111" s="13"/>
+      <c r="DH111" s="13"/>
+      <c r="DI111" s="13"/>
+      <c r="DJ111" s="13"/>
+      <c r="DK111" s="13"/>
+      <c r="DL111" s="13"/>
+      <c r="DM111" s="13"/>
+      <c r="DN111" s="13"/>
+      <c r="DO111" s="13"/>
+      <c r="DP111" s="13"/>
+      <c r="DQ111" s="13"/>
+      <c r="DR111" s="13"/>
+      <c r="DS111" s="13"/>
+      <c r="DT111" s="13"/>
+      <c r="DU111" s="13"/>
+      <c r="DV111" s="13"/>
+      <c r="DW111" s="13"/>
+      <c r="DX111" s="13"/>
+      <c r="DY111" s="13"/>
+      <c r="DZ111" s="13"/>
+      <c r="EA111" s="13"/>
+      <c r="EB111" s="13"/>
+      <c r="EC111" s="13"/>
+      <c r="ED111" s="13"/>
+      <c r="EE111" s="13"/>
+      <c r="EF111" s="13"/>
+      <c r="EG111" s="13"/>
+      <c r="EH111" s="13"/>
+      <c r="EI111" s="13"/>
+      <c r="EJ111" s="13"/>
+      <c r="EK111" s="13"/>
+      <c r="EL111" s="13"/>
+      <c r="EM111" s="13"/>
+      <c r="EN111" s="13"/>
+      <c r="EO111" s="13"/>
+      <c r="EP111" s="13"/>
+      <c r="EQ111" s="13"/>
+      <c r="ER111" s="13"/>
+      <c r="ES111" s="13"/>
+      <c r="ET111" s="13"/>
+      <c r="EU111" s="13"/>
+      <c r="EV111" s="13"/>
+      <c r="EW111" s="13"/>
+      <c r="EX111" s="13"/>
+      <c r="EY111" s="13"/>
+      <c r="EZ111" s="13"/>
+      <c r="FA111" s="13"/>
+      <c r="FB111" s="13"/>
+      <c r="FC111" s="13"/>
+      <c r="FD111" s="13"/>
+      <c r="FE111" s="13"/>
+      <c r="FF111" s="13"/>
+      <c r="FG111" s="13"/>
+      <c r="FH111" s="13"/>
+      <c r="FI111" s="13"/>
+      <c r="FJ111" s="13"/>
+      <c r="FK111" s="13"/>
+      <c r="FL111" s="13"/>
+      <c r="FM111" s="13"/>
+      <c r="FN111" s="13"/>
+      <c r="FO111" s="13"/>
+      <c r="FP111" s="13"/>
+      <c r="FQ111" s="13"/>
+      <c r="FR111" s="13"/>
+      <c r="FS111" s="13"/>
+      <c r="FT111" s="13"/>
+      <c r="FU111" s="13"/>
+      <c r="FV111" s="13"/>
+      <c r="FW111" s="13"/>
+      <c r="FX111" s="13"/>
+      <c r="FY111" s="13"/>
+      <c r="FZ111" s="13"/>
+      <c r="GA111" s="13"/>
+      <c r="GB111" s="13"/>
+      <c r="GC111" s="13"/>
+      <c r="GD111" s="13"/>
+      <c r="GE111" s="13"/>
+      <c r="GF111" s="13"/>
+      <c r="GG111" s="13"/>
+      <c r="GH111" s="13"/>
+      <c r="GI111" s="13"/>
+      <c r="GJ111" s="13"/>
+      <c r="GK111" s="13"/>
+      <c r="GL111" s="13"/>
+      <c r="GM111" s="13"/>
+      <c r="GN111" s="13"/>
+      <c r="GO111" s="13"/>
+      <c r="GP111" s="13"/>
+      <c r="GQ111" s="13"/>
+      <c r="GR111" s="13"/>
+      <c r="GS111" s="13"/>
+      <c r="GT111" s="13"/>
+      <c r="GU111" s="13"/>
+      <c r="GV111" s="13"/>
+      <c r="GW111" s="13"/>
+      <c r="GX111" s="13"/>
+      <c r="GY111" s="13"/>
+      <c r="GZ111" s="13"/>
+      <c r="HA111" s="13"/>
+      <c r="HB111" s="13"/>
+      <c r="HC111" s="13"/>
+      <c r="HD111" s="13"/>
+      <c r="HE111" s="13"/>
+      <c r="HF111" s="13"/>
+      <c r="HG111" s="13"/>
+      <c r="HH111" s="13"/>
+      <c r="HI111" s="13"/>
+      <c r="HJ111" s="13"/>
+      <c r="HK111" s="13"/>
+      <c r="HL111" s="13"/>
+      <c r="HM111" s="13"/>
+      <c r="HN111" s="13"/>
+      <c r="HO111" s="13"/>
+      <c r="HP111" s="13"/>
+      <c r="HQ111" s="13"/>
+      <c r="HR111" s="13"/>
+      <c r="HS111" s="13"/>
+      <c r="HT111" s="13"/>
+      <c r="HU111" s="13"/>
+      <c r="HV111" s="13"/>
+      <c r="HW111" s="13"/>
+      <c r="HX111" s="13"/>
+      <c r="HY111" s="13"/>
+      <c r="HZ111" s="13"/>
+      <c r="IA111" s="13"/>
+      <c r="IB111" s="13"/>
+      <c r="IC111" s="13"/>
+      <c r="ID111" s="13"/>
+      <c r="IE111" s="13"/>
+      <c r="IF111" s="13"/>
+      <c r="IG111" s="13"/>
+      <c r="IH111" s="13"/>
+      <c r="II111" s="13"/>
+      <c r="IJ111" s="13"/>
+      <c r="IK111" s="13"/>
+      <c r="IL111" s="13"/>
+      <c r="IM111" s="13"/>
+      <c r="IN111" s="13"/>
+      <c r="IO111" s="13"/>
+      <c r="IP111" s="13"/>
+      <c r="IQ111" s="13"/>
+      <c r="IR111" s="13"/>
+      <c r="IS111" s="13"/>
+      <c r="IT111" s="13"/>
+      <c r="IU111" s="13"/>
+      <c r="IV111" s="13"/>
+      <c r="IW111" s="13"/>
+      <c r="IX111" s="13"/>
+      <c r="IY111" s="13"/>
+      <c r="IZ111" s="13"/>
+      <c r="JA111" s="13"/>
+      <c r="JB111" s="13"/>
+      <c r="JC111" s="13"/>
+      <c r="JD111" s="13"/>
+      <c r="JE111" s="13"/>
+      <c r="JF111" s="13"/>
+      <c r="JG111" s="13"/>
+      <c r="JH111" s="13"/>
+      <c r="JI111" s="13"/>
+      <c r="JJ111" s="13"/>
+      <c r="JK111" s="13"/>
+      <c r="JL111" s="13"/>
+      <c r="JM111" s="13"/>
+      <c r="JN111" s="13"/>
+      <c r="JO111" s="13"/>
+      <c r="JP111" s="13"/>
+      <c r="JQ111" s="13"/>
+      <c r="JR111" s="13"/>
+      <c r="JS111" s="13"/>
+      <c r="JT111" s="13"/>
+      <c r="JU111" s="13"/>
+      <c r="JV111" s="13"/>
+      <c r="JW111" s="13"/>
+      <c r="JX111" s="13"/>
+      <c r="JY111" s="13"/>
+      <c r="JZ111" s="13"/>
+      <c r="KA111" s="13"/>
+      <c r="KB111" s="13"/>
+      <c r="KC111" s="13"/>
+      <c r="KD111" s="13"/>
+      <c r="KE111" s="13"/>
+      <c r="KF111" s="13"/>
+      <c r="KG111" s="13"/>
+      <c r="KH111" s="13"/>
+      <c r="KI111" s="13"/>
+      <c r="KJ111" s="13"/>
+      <c r="KK111" s="13"/>
+      <c r="KL111" s="13"/>
+      <c r="KM111" s="13"/>
+      <c r="KN111" s="13"/>
+      <c r="KO111" s="13"/>
+      <c r="KP111" s="13"/>
+      <c r="KQ111" s="13"/>
+      <c r="KR111" s="13"/>
+      <c r="KS111" s="13"/>
+      <c r="KT111" s="13"/>
+      <c r="KU111" s="13"/>
+      <c r="KV111" s="13"/>
+      <c r="KW111" s="13"/>
+      <c r="KX111" s="13"/>
+      <c r="KY111" s="13"/>
+      <c r="KZ111" s="13"/>
+      <c r="LA111" s="13"/>
+      <c r="LB111" s="13"/>
+      <c r="LC111" s="13"/>
+      <c r="LD111" s="13"/>
+      <c r="LE111" s="13"/>
+      <c r="LF111" s="13"/>
+      <c r="LG111" s="13"/>
+      <c r="LH111" s="13"/>
+      <c r="LI111" s="13"/>
+      <c r="LJ111" s="13"/>
+      <c r="LK111" s="13"/>
+      <c r="LL111" s="13"/>
+      <c r="LM111" s="13"/>
+      <c r="LN111" s="13"/>
+      <c r="LO111" s="13"/>
+      <c r="LP111" s="13"/>
+      <c r="LQ111" s="13"/>
+      <c r="LR111" s="13"/>
+      <c r="LS111" s="13"/>
+      <c r="LT111" s="13"/>
+      <c r="LU111" s="13"/>
+      <c r="LV111" s="13"/>
+      <c r="LW111" s="13"/>
+      <c r="LX111" s="13"/>
+      <c r="LY111" s="13"/>
+      <c r="LZ111" s="13"/>
+      <c r="MA111" s="13"/>
+      <c r="MB111" s="13"/>
+      <c r="MC111" s="13"/>
+      <c r="MD111" s="13"/>
+      <c r="ME111" s="13"/>
+      <c r="MF111" s="13"/>
+      <c r="MG111" s="13"/>
+      <c r="MH111" s="13"/>
+      <c r="MI111" s="13"/>
+      <c r="MJ111" s="13"/>
+      <c r="MK111" s="13"/>
+      <c r="ML111" s="13"/>
+      <c r="MM111" s="13"/>
+      <c r="MN111" s="13"/>
+      <c r="MO111" s="13"/>
+      <c r="MP111" s="13"/>
+      <c r="MQ111" s="13"/>
+      <c r="MR111" s="13"/>
+      <c r="MS111" s="13"/>
+      <c r="MT111" s="13"/>
+      <c r="MU111" s="13"/>
+      <c r="MV111" s="13"/>
+      <c r="MW111" s="13"/>
+      <c r="MX111" s="13"/>
+      <c r="MY111" s="13"/>
+      <c r="MZ111" s="13"/>
+      <c r="NA111" s="13"/>
+      <c r="NB111" s="13"/>
+      <c r="NC111" s="13"/>
+      <c r="ND111" s="13"/>
+      <c r="NE111" s="13"/>
+      <c r="NF111" s="13"/>
+      <c r="NG111" s="13"/>
+      <c r="NH111" s="13"/>
+      <c r="NI111" s="13"/>
+      <c r="NJ111" s="13"/>
+      <c r="NK111" s="13"/>
+      <c r="NL111" s="13"/>
+      <c r="NM111" s="13"/>
+      <c r="NN111" s="13"/>
+      <c r="NO111" s="13"/>
+      <c r="NP111" s="13"/>
+      <c r="NQ111" s="13"/>
+      <c r="NR111" s="13"/>
+      <c r="NS111" s="13"/>
+      <c r="NT111" s="13"/>
+      <c r="NU111" s="13"/>
+      <c r="NV111" s="13"/>
+      <c r="NW111" s="13"/>
+      <c r="NX111" s="13"/>
+      <c r="NY111" s="13"/>
+      <c r="NZ111" s="13"/>
+      <c r="OA111" s="13"/>
+      <c r="OB111" s="13"/>
+      <c r="OC111" s="13"/>
+      <c r="OD111" s="13"/>
+      <c r="OE111" s="13"/>
+      <c r="OF111" s="13"/>
+      <c r="OG111" s="13"/>
+      <c r="OH111" s="13"/>
+      <c r="OI111" s="13"/>
+      <c r="OJ111" s="13"/>
+      <c r="OK111" s="13"/>
+      <c r="OL111" s="13"/>
+      <c r="OM111" s="13"/>
+      <c r="ON111" s="13"/>
+      <c r="OO111" s="13"/>
+      <c r="OP111" s="13"/>
+      <c r="OQ111" s="13"/>
+      <c r="OR111" s="13"/>
+      <c r="OS111" s="13"/>
+      <c r="OT111" s="13"/>
+      <c r="OU111" s="13"/>
+      <c r="OV111" s="13"/>
+      <c r="OW111" s="13"/>
+      <c r="OX111" s="13"/>
+      <c r="OY111" s="13"/>
+      <c r="OZ111" s="13"/>
+      <c r="PA111" s="13"/>
+      <c r="PB111" s="13"/>
+      <c r="PC111" s="13"/>
+      <c r="PD111" s="13"/>
+      <c r="PE111" s="13"/>
+      <c r="PF111" s="13"/>
+      <c r="PG111" s="13"/>
+      <c r="PH111" s="13"/>
+      <c r="PI111" s="13"/>
+      <c r="PJ111" s="13"/>
+      <c r="PK111" s="13"/>
+      <c r="PL111" s="13"/>
+      <c r="PM111" s="13"/>
+      <c r="PN111" s="13"/>
+      <c r="PO111" s="13"/>
+      <c r="PP111" s="13"/>
+      <c r="PQ111" s="13"/>
+      <c r="PR111" s="13"/>
+      <c r="PS111" s="13"/>
+      <c r="PT111" s="13"/>
+      <c r="PU111" s="13"/>
+      <c r="PV111" s="13"/>
+      <c r="PW111" s="13"/>
+      <c r="PX111" s="13"/>
+      <c r="PY111" s="13"/>
+      <c r="PZ111" s="13"/>
+      <c r="QA111" s="13"/>
+      <c r="QB111" s="13"/>
+      <c r="QC111" s="13"/>
+      <c r="QD111" s="13"/>
+      <c r="QE111" s="13"/>
+      <c r="QF111" s="13"/>
+      <c r="QG111" s="13"/>
+      <c r="QH111" s="13"/>
+      <c r="QI111" s="13"/>
+      <c r="QJ111" s="13"/>
+      <c r="QK111" s="13"/>
+      <c r="QL111" s="13"/>
+      <c r="QM111" s="13"/>
+      <c r="QN111" s="13"/>
+      <c r="QO111" s="13"/>
+      <c r="QP111" s="13"/>
+      <c r="QQ111" s="13"/>
+      <c r="QR111" s="13"/>
+      <c r="QS111" s="13"/>
+      <c r="QT111" s="13"/>
+      <c r="QU111" s="13"/>
+      <c r="QV111" s="13"/>
+      <c r="QW111" s="13"/>
+      <c r="QX111" s="13"/>
+      <c r="QY111" s="13"/>
+      <c r="QZ111" s="13"/>
+      <c r="RA111" s="13"/>
+      <c r="RB111" s="13"/>
+      <c r="RC111" s="13"/>
+      <c r="RD111" s="13"/>
+      <c r="RE111" s="13"/>
+      <c r="RF111" s="13"/>
+      <c r="RG111" s="13"/>
+      <c r="RH111" s="13"/>
+      <c r="RI111" s="13"/>
+      <c r="RJ111" s="13"/>
+      <c r="RK111" s="13"/>
+      <c r="RL111" s="13"/>
+      <c r="RM111" s="13"/>
+      <c r="RN111" s="13"/>
+      <c r="RO111" s="13"/>
+      <c r="RP111" s="13"/>
+      <c r="RQ111" s="13"/>
+      <c r="RR111" s="13"/>
+      <c r="RS111" s="13"/>
+      <c r="RT111" s="13"/>
+      <c r="RU111" s="13"/>
+      <c r="RV111" s="13"/>
+      <c r="RW111" s="13"/>
+      <c r="RX111" s="13"/>
+      <c r="RY111" s="13"/>
+      <c r="RZ111" s="13"/>
+      <c r="SA111" s="13"/>
+      <c r="SB111" s="13"/>
+      <c r="SC111" s="13"/>
+      <c r="SD111" s="13"/>
+      <c r="SE111" s="13"/>
+      <c r="SF111" s="13"/>
+      <c r="SG111" s="13"/>
+      <c r="SH111" s="13"/>
+      <c r="SI111" s="13"/>
+      <c r="SJ111" s="13"/>
+      <c r="SK111" s="13"/>
+      <c r="SL111" s="13"/>
+      <c r="SM111" s="13"/>
+      <c r="SN111" s="13"/>
+      <c r="SO111" s="13"/>
+      <c r="SP111" s="13"/>
+      <c r="SQ111" s="13"/>
+      <c r="SR111" s="13"/>
+      <c r="SS111" s="13"/>
+      <c r="ST111" s="13"/>
+      <c r="SU111" s="13"/>
+      <c r="SV111" s="13"/>
+      <c r="SW111" s="13"/>
+      <c r="SX111" s="13"/>
+      <c r="SY111" s="13"/>
+      <c r="SZ111" s="13"/>
+      <c r="TA111" s="13"/>
+      <c r="TB111" s="13"/>
+      <c r="TC111" s="13"/>
+      <c r="TD111" s="13"/>
+      <c r="TE111" s="13"/>
+      <c r="TF111" s="13"/>
+      <c r="TG111" s="13"/>
+      <c r="TH111" s="13"/>
+      <c r="TI111" s="13"/>
+      <c r="TJ111" s="13"/>
+      <c r="TK111" s="13"/>
+      <c r="TL111" s="13"/>
+      <c r="TM111" s="13"/>
+      <c r="TN111" s="13"/>
+      <c r="TO111" s="13"/>
+      <c r="TP111" s="13"/>
+      <c r="TQ111" s="13"/>
+      <c r="TR111" s="13"/>
+      <c r="TS111" s="13"/>
+      <c r="TT111" s="13"/>
+      <c r="TU111" s="13"/>
+      <c r="TV111" s="13"/>
+      <c r="TW111" s="13"/>
+      <c r="TX111" s="13"/>
+      <c r="TY111" s="13"/>
+      <c r="TZ111" s="13"/>
+      <c r="UA111" s="13"/>
+      <c r="UB111" s="13"/>
+      <c r="UC111" s="13"/>
+      <c r="UD111" s="13"/>
+      <c r="UE111" s="13"/>
+      <c r="UF111" s="13"/>
+      <c r="UG111" s="13"/>
+      <c r="UH111" s="13"/>
+      <c r="UI111" s="13"/>
+      <c r="UJ111" s="13"/>
+      <c r="UK111" s="13"/>
+      <c r="UL111" s="13"/>
+      <c r="UM111" s="13"/>
+      <c r="UN111" s="13"/>
+      <c r="UO111" s="13"/>
+      <c r="UP111" s="13"/>
+      <c r="UQ111" s="13"/>
+      <c r="UR111" s="13"/>
+      <c r="US111" s="13"/>
+      <c r="UT111" s="13"/>
+      <c r="UU111" s="13"/>
+      <c r="UV111" s="13"/>
+      <c r="UW111" s="13"/>
+      <c r="UX111" s="13"/>
+      <c r="UY111" s="13"/>
+      <c r="UZ111" s="13"/>
+      <c r="VA111" s="13"/>
+      <c r="VB111" s="13"/>
+      <c r="VC111" s="13"/>
+      <c r="VD111" s="13"/>
+      <c r="VE111" s="13"/>
+      <c r="VF111" s="13"/>
+      <c r="VG111" s="13"/>
+      <c r="VH111" s="13"/>
+      <c r="VI111" s="13"/>
+      <c r="VJ111" s="13"/>
+      <c r="VK111" s="13"/>
+      <c r="VL111" s="13"/>
+      <c r="VM111" s="13"/>
+      <c r="VN111" s="13"/>
+      <c r="VO111" s="13"/>
+      <c r="VP111" s="13"/>
+      <c r="VQ111" s="13"/>
+      <c r="VR111" s="13"/>
+      <c r="VS111" s="13"/>
+      <c r="VT111" s="13"/>
+      <c r="VU111" s="13"/>
+      <c r="VV111" s="13"/>
+      <c r="VW111" s="13"/>
+      <c r="VX111" s="13"/>
+      <c r="VY111" s="13"/>
+      <c r="VZ111" s="13"/>
+      <c r="WA111" s="13"/>
+      <c r="WB111" s="13"/>
+      <c r="WC111" s="13"/>
+      <c r="WD111" s="13"/>
+      <c r="WE111" s="13"/>
+      <c r="WF111" s="13"/>
+      <c r="WG111" s="13"/>
+      <c r="WH111" s="13"/>
+      <c r="WI111" s="13"/>
+      <c r="WJ111" s="13"/>
+      <c r="WK111" s="13"/>
+      <c r="WL111" s="13"/>
+      <c r="WM111" s="13"/>
+      <c r="WN111" s="13"/>
+      <c r="WO111" s="13"/>
+      <c r="WP111" s="13"/>
+      <c r="WQ111" s="13"/>
+      <c r="WR111" s="13"/>
+      <c r="WS111" s="13"/>
+      <c r="WT111" s="13"/>
+      <c r="WU111" s="13"/>
+      <c r="WV111" s="13"/>
+      <c r="WW111" s="13"/>
+      <c r="WX111" s="13"/>
+      <c r="WY111" s="13"/>
+      <c r="WZ111" s="13"/>
+      <c r="XA111" s="13"/>
+      <c r="XB111" s="13"/>
+      <c r="XC111" s="13"/>
+      <c r="XD111" s="13"/>
+      <c r="XE111" s="13"/>
+      <c r="XF111" s="13"/>
+      <c r="XG111" s="13"/>
+      <c r="XH111" s="13"/>
+      <c r="XI111" s="13"/>
+      <c r="XJ111" s="13"/>
+      <c r="XK111" s="13"/>
+      <c r="XL111" s="13"/>
+      <c r="XM111" s="13"/>
+      <c r="XN111" s="13"/>
+      <c r="XO111" s="13"/>
+      <c r="XP111" s="13"/>
+      <c r="XQ111" s="13"/>
+      <c r="XR111" s="13"/>
+      <c r="XS111" s="13"/>
+      <c r="XT111" s="13"/>
+      <c r="XU111" s="13"/>
+      <c r="XV111" s="13"/>
+      <c r="XW111" s="13"/>
+      <c r="XX111" s="13"/>
+      <c r="XY111" s="13"/>
+      <c r="XZ111" s="13"/>
+      <c r="YA111" s="13"/>
+      <c r="YB111" s="13"/>
+      <c r="YC111" s="13"/>
+      <c r="YD111" s="13"/>
+      <c r="YE111" s="13"/>
+      <c r="YF111" s="13"/>
+      <c r="YG111" s="13"/>
+      <c r="YH111" s="13"/>
+      <c r="YI111" s="13"/>
+      <c r="YJ111" s="13"/>
+      <c r="YK111" s="13"/>
+      <c r="YL111" s="13"/>
+      <c r="YM111" s="13"/>
+      <c r="YN111" s="13"/>
+      <c r="YO111" s="13"/>
+      <c r="YP111" s="13"/>
+      <c r="YQ111" s="13"/>
+      <c r="YR111" s="13"/>
+      <c r="YS111" s="13"/>
+      <c r="YT111" s="13"/>
+      <c r="YU111" s="13"/>
+      <c r="YV111" s="13"/>
+      <c r="YW111" s="13"/>
+      <c r="YX111" s="13"/>
+      <c r="YY111" s="13"/>
+      <c r="YZ111" s="13"/>
+      <c r="ZA111" s="13"/>
+      <c r="ZB111" s="13"/>
+      <c r="ZC111" s="13"/>
+      <c r="ZD111" s="13"/>
+      <c r="ZE111" s="13"/>
+      <c r="ZF111" s="13"/>
+      <c r="ZG111" s="13"/>
+      <c r="ZH111" s="13"/>
+      <c r="ZI111" s="13"/>
+      <c r="ZJ111" s="13"/>
+      <c r="ZK111" s="13"/>
+      <c r="ZL111" s="13"/>
+      <c r="ZM111" s="13"/>
+      <c r="ZN111" s="13"/>
+      <c r="ZO111" s="13"/>
+      <c r="ZP111" s="13"/>
+      <c r="ZQ111" s="13"/>
+      <c r="ZR111" s="13"/>
+      <c r="ZS111" s="13"/>
+      <c r="ZT111" s="13"/>
+      <c r="ZU111" s="13"/>
+      <c r="ZV111" s="13"/>
+      <c r="ZW111" s="13"/>
+      <c r="ZX111" s="13"/>
+      <c r="ZY111" s="13"/>
+      <c r="ZZ111" s="13"/>
+      <c r="AAA111" s="13"/>
+      <c r="AAB111" s="13"/>
+      <c r="AAC111" s="13"/>
+      <c r="AAD111" s="13"/>
+      <c r="AAE111" s="13"/>
+      <c r="AAF111" s="13"/>
+      <c r="AAG111" s="13"/>
+      <c r="AAH111" s="13"/>
+      <c r="AAI111" s="13"/>
+      <c r="AAJ111" s="13"/>
+      <c r="AAK111" s="13"/>
+      <c r="AAL111" s="13"/>
+      <c r="AAM111" s="13"/>
+      <c r="AAN111" s="13"/>
+      <c r="AAO111" s="13"/>
+      <c r="AAP111" s="13"/>
+      <c r="AAQ111" s="13"/>
+      <c r="AAR111" s="13"/>
+      <c r="AAS111" s="13"/>
+      <c r="AAT111" s="13"/>
+      <c r="AAU111" s="13"/>
+      <c r="AAV111" s="13"/>
+      <c r="AAW111" s="13"/>
+      <c r="AAX111" s="13"/>
+      <c r="AAY111" s="13"/>
+      <c r="AAZ111" s="13"/>
+      <c r="ABA111" s="13"/>
+      <c r="ABB111" s="13"/>
+      <c r="ABC111" s="13"/>
+      <c r="ABD111" s="13"/>
+      <c r="ABE111" s="13"/>
+      <c r="ABF111" s="13"/>
+      <c r="ABG111" s="13"/>
+      <c r="ABH111" s="13"/>
+      <c r="ABI111" s="13"/>
+      <c r="ABJ111" s="13"/>
+      <c r="ABK111" s="13"/>
+      <c r="ABL111" s="13"/>
+      <c r="ABM111" s="13"/>
+      <c r="ABN111" s="13"/>
+      <c r="ABO111" s="13"/>
+      <c r="ABP111" s="13"/>
+      <c r="ABQ111" s="13"/>
+      <c r="ABR111" s="13"/>
+      <c r="ABS111" s="13"/>
+      <c r="ABT111" s="13"/>
+      <c r="ABU111" s="13"/>
+      <c r="ABV111" s="13"/>
+      <c r="ABW111" s="13"/>
+      <c r="ABX111" s="13"/>
+      <c r="ABY111" s="13"/>
+      <c r="ABZ111" s="13"/>
+      <c r="ACA111" s="13"/>
+      <c r="ACB111" s="13"/>
+      <c r="ACC111" s="13"/>
+      <c r="ACD111" s="13"/>
+      <c r="ACE111" s="13"/>
+      <c r="ACF111" s="13"/>
+      <c r="ACG111" s="13"/>
+      <c r="ACH111" s="13"/>
+      <c r="ACI111" s="13"/>
+      <c r="ACJ111" s="13"/>
+      <c r="ACK111" s="13"/>
+      <c r="ACL111" s="13"/>
+      <c r="ACM111" s="13"/>
+      <c r="ACN111" s="13"/>
+      <c r="ACO111" s="13"/>
+      <c r="ACP111" s="13"/>
+      <c r="ACQ111" s="13"/>
+      <c r="ACR111" s="13"/>
+      <c r="ACS111" s="13"/>
+      <c r="ACT111" s="13"/>
+      <c r="ACU111" s="13"/>
+      <c r="ACV111" s="13"/>
+      <c r="ACW111" s="13"/>
+      <c r="ACX111" s="13"/>
+      <c r="ACY111" s="13"/>
+      <c r="ACZ111" s="13"/>
+      <c r="ADA111" s="13"/>
+      <c r="ADB111" s="13"/>
+      <c r="ADC111" s="13"/>
+      <c r="ADD111" s="13"/>
+      <c r="ADE111" s="13"/>
+      <c r="ADF111" s="13"/>
+      <c r="ADG111" s="13"/>
+      <c r="ADH111" s="13"/>
+      <c r="ADI111" s="13"/>
+      <c r="ADJ111" s="13"/>
+      <c r="ADK111" s="13"/>
+      <c r="ADL111" s="13"/>
+      <c r="ADM111" s="13"/>
+      <c r="ADN111" s="13"/>
+      <c r="ADO111" s="13"/>
+      <c r="ADP111" s="13"/>
+      <c r="ADQ111" s="13"/>
+      <c r="ADR111" s="13"/>
+      <c r="ADS111" s="13"/>
+      <c r="ADT111" s="13"/>
+      <c r="ADU111" s="13"/>
+      <c r="ADV111" s="13"/>
+      <c r="ADW111" s="13"/>
+      <c r="ADX111" s="13"/>
+      <c r="ADY111" s="13"/>
+      <c r="ADZ111" s="13"/>
+      <c r="AEA111" s="13"/>
+      <c r="AEB111" s="13"/>
+      <c r="AEC111" s="13"/>
+      <c r="AED111" s="13"/>
+      <c r="AEE111" s="13"/>
+      <c r="AEF111" s="13"/>
+      <c r="AEG111" s="13"/>
+      <c r="AEH111" s="13"/>
+      <c r="AEI111" s="13"/>
+      <c r="AEJ111" s="13"/>
+      <c r="AEK111" s="13"/>
+      <c r="AEL111" s="13"/>
+      <c r="AEM111" s="13"/>
+      <c r="AEN111" s="13"/>
+      <c r="AEO111" s="13"/>
+      <c r="AEP111" s="13"/>
+      <c r="AEQ111" s="13"/>
+      <c r="AER111" s="13"/>
+      <c r="AES111" s="13"/>
+      <c r="AET111" s="13"/>
+      <c r="AEU111" s="13"/>
+      <c r="AEV111" s="13"/>
+      <c r="AEW111" s="13"/>
+      <c r="AEX111" s="13"/>
+      <c r="AEY111" s="13"/>
+      <c r="AEZ111" s="13"/>
+      <c r="AFA111" s="13"/>
+      <c r="AFB111" s="13"/>
+      <c r="AFC111" s="13"/>
+      <c r="AFD111" s="13"/>
+      <c r="AFE111" s="13"/>
+      <c r="AFF111" s="13"/>
+      <c r="AFG111" s="13"/>
+      <c r="AFH111" s="13"/>
+      <c r="AFI111" s="13"/>
+      <c r="AFJ111" s="13"/>
+      <c r="AFK111" s="13"/>
+      <c r="AFL111" s="13"/>
+      <c r="AFM111" s="13"/>
+      <c r="AFN111" s="13"/>
+      <c r="AFO111" s="13"/>
+      <c r="AFP111" s="13"/>
+      <c r="AFQ111" s="13"/>
+      <c r="AFR111" s="13"/>
+      <c r="AFS111" s="13"/>
+      <c r="AFT111" s="13"/>
+      <c r="AFU111" s="13"/>
+      <c r="AFV111" s="13"/>
+      <c r="AFW111" s="13"/>
+      <c r="AFX111" s="13"/>
+      <c r="AFY111" s="13"/>
+      <c r="AFZ111" s="13"/>
+      <c r="AGA111" s="13"/>
+      <c r="AGB111" s="13"/>
+      <c r="AGC111" s="13"/>
+      <c r="AGD111" s="13"/>
+      <c r="AGE111" s="13"/>
+      <c r="AGF111" s="13"/>
+      <c r="AGG111" s="13"/>
+      <c r="AGH111" s="13"/>
+      <c r="AGI111" s="13"/>
+      <c r="AGJ111" s="13"/>
+      <c r="AGK111" s="13"/>
+      <c r="AGL111" s="13"/>
+      <c r="AGM111" s="13"/>
+      <c r="AGN111" s="13"/>
+      <c r="AGO111" s="13"/>
+      <c r="AGP111" s="13"/>
+      <c r="AGQ111" s="13"/>
+      <c r="AGR111" s="13"/>
+      <c r="AGS111" s="13"/>
+      <c r="AGT111" s="13"/>
+      <c r="AGU111" s="13"/>
+      <c r="AGV111" s="13"/>
+      <c r="AGW111" s="13"/>
+      <c r="AGX111" s="13"/>
+      <c r="AGY111" s="13"/>
+      <c r="AGZ111" s="13"/>
+      <c r="AHA111" s="13"/>
+      <c r="AHB111" s="13"/>
+      <c r="AHC111" s="13"/>
+      <c r="AHD111" s="13"/>
+      <c r="AHE111" s="13"/>
+      <c r="AHF111" s="13"/>
+      <c r="AHG111" s="13"/>
+      <c r="AHH111" s="13"/>
+      <c r="AHI111" s="13"/>
+      <c r="AHJ111" s="13"/>
+      <c r="AHK111" s="13"/>
+      <c r="AHL111" s="13"/>
+      <c r="AHM111" s="13"/>
+      <c r="AHN111" s="13"/>
+      <c r="AHO111" s="13"/>
+      <c r="AHP111" s="13"/>
+      <c r="AHQ111" s="13"/>
+      <c r="AHR111" s="13"/>
+      <c r="AHS111" s="13"/>
+      <c r="AHT111" s="13"/>
+      <c r="AHU111" s="13"/>
+      <c r="AHV111" s="13"/>
+      <c r="AHW111" s="13"/>
+      <c r="AHX111" s="13"/>
+      <c r="AHY111" s="13"/>
+      <c r="AHZ111" s="13"/>
+      <c r="AIA111" s="13"/>
+      <c r="AIB111" s="13"/>
+      <c r="AIC111" s="13"/>
+      <c r="AID111" s="13"/>
+      <c r="AIE111" s="13"/>
+      <c r="AIF111" s="13"/>
+      <c r="AIG111" s="13"/>
+      <c r="AIH111" s="13"/>
+      <c r="AII111" s="13"/>
+      <c r="AIJ111" s="13"/>
+      <c r="AIK111" s="13"/>
+      <c r="AIL111" s="13"/>
+      <c r="AIM111" s="13"/>
+      <c r="AIN111" s="13"/>
+      <c r="AIO111" s="13"/>
+      <c r="AIP111" s="13"/>
+      <c r="AIQ111" s="13"/>
+      <c r="AIR111" s="13"/>
+      <c r="AIS111" s="13"/>
+      <c r="AIT111" s="13"/>
+      <c r="AIU111" s="13"/>
+      <c r="AIV111" s="13"/>
+      <c r="AIW111" s="13"/>
+      <c r="AIX111" s="13"/>
+      <c r="AIY111" s="13"/>
+      <c r="AIZ111" s="13"/>
+      <c r="AJA111" s="13"/>
+      <c r="AJB111" s="13"/>
+      <c r="AJC111" s="13"/>
+      <c r="AJD111" s="13"/>
+      <c r="AJE111" s="13"/>
+      <c r="AJF111" s="13"/>
+      <c r="AJG111" s="13"/>
+      <c r="AJH111" s="13"/>
+      <c r="AJI111" s="13"/>
+      <c r="AJJ111" s="13"/>
+      <c r="AJK111" s="13"/>
+      <c r="AJL111" s="13"/>
+      <c r="AJM111" s="13"/>
+      <c r="AJN111" s="13"/>
+      <c r="AJO111" s="13"/>
+      <c r="AJP111" s="13"/>
+      <c r="AJQ111" s="13"/>
+      <c r="AJR111" s="13"/>
+      <c r="AJS111" s="13"/>
+      <c r="AJT111" s="13"/>
+      <c r="AJU111" s="13"/>
+      <c r="AJV111" s="13"/>
+      <c r="AJW111" s="13"/>
+      <c r="AJX111" s="13"/>
+      <c r="AJY111" s="13"/>
+      <c r="AJZ111" s="13"/>
+      <c r="AKA111" s="13"/>
+      <c r="AKB111" s="13"/>
+      <c r="AKC111" s="13"/>
+      <c r="AKD111" s="13"/>
+      <c r="AKE111" s="13"/>
+      <c r="AKF111" s="13"/>
+      <c r="AKG111" s="13"/>
+      <c r="AKH111" s="13"/>
+      <c r="AKI111" s="13"/>
+      <c r="AKJ111" s="13"/>
+      <c r="AKK111" s="13"/>
+      <c r="AKL111" s="13"/>
+      <c r="AKM111" s="13"/>
+      <c r="AKN111" s="13"/>
+      <c r="AKO111" s="13"/>
+      <c r="AKP111" s="13"/>
+      <c r="AKQ111" s="13"/>
+      <c r="AKR111" s="13"/>
+      <c r="AKS111" s="13"/>
+      <c r="AKT111" s="13"/>
+      <c r="AKU111" s="13"/>
+      <c r="AKV111" s="13"/>
+      <c r="AKW111" s="13"/>
+      <c r="AKX111" s="13"/>
+      <c r="AKY111" s="13"/>
+      <c r="AKZ111" s="13"/>
+      <c r="ALA111" s="13"/>
+      <c r="ALB111" s="13"/>
+      <c r="ALC111" s="13"/>
+      <c r="ALD111" s="13"/>
+      <c r="ALE111" s="13"/>
+      <c r="ALF111" s="13"/>
+      <c r="ALG111" s="13"/>
+      <c r="ALH111" s="13"/>
+      <c r="ALI111" s="13"/>
+      <c r="ALJ111" s="13"/>
+      <c r="ALK111" s="13"/>
+      <c r="ALL111" s="13"/>
+      <c r="ALM111" s="13"/>
+      <c r="ALN111" s="13"/>
+      <c r="ALO111" s="13"/>
+      <c r="ALP111" s="13"/>
+      <c r="ALQ111" s="13"/>
+      <c r="ALR111" s="13"/>
+      <c r="ALS111" s="13"/>
+      <c r="ALT111" s="13"/>
+      <c r="ALU111" s="13"/>
+      <c r="ALV111" s="13"/>
+      <c r="ALW111" s="13"/>
+      <c r="ALX111" s="13"/>
+      <c r="ALY111" s="13"/>
+      <c r="ALZ111" s="13"/>
+      <c r="AMA111" s="13"/>
+      <c r="AMB111" s="13"/>
+      <c r="AMC111" s="13"/>
+      <c r="AMD111" s="13"/>
+      <c r="AME111" s="13"/>
+      <c r="AMF111" s="13"/>
+      <c r="AMG111" s="13"/>
+      <c r="AMH111" s="13"/>
+      <c r="AMI111" s="13"/>
+      <c r="AMJ111" s="13"/>
+    </row>
+    <row r="112" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17" t="s">
         <v>101</v>
       </c>
@@ -4658,12 +5691,10 @@
         <v>216</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>218</v>
-      </c>
+      <c r="E112" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="18"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
       <c r="I112" s="17"/>
@@ -4684,2069 +5715,1036 @@
       <c r="X112" s="19"/>
       <c r="Y112" s="19"/>
       <c r="Z112" s="19"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="14"/>
-      <c r="AF112" s="14"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="14"/>
-      <c r="AI112" s="14"/>
-      <c r="AJ112" s="14"/>
-      <c r="AK112" s="14"/>
-      <c r="AL112" s="14"/>
-      <c r="AM112" s="14"/>
-      <c r="AN112" s="14"/>
-      <c r="AO112" s="14"/>
-      <c r="AP112" s="14"/>
-      <c r="AQ112" s="14"/>
-      <c r="AR112" s="14"/>
-      <c r="AS112" s="14"/>
-      <c r="AT112" s="14"/>
-      <c r="AU112" s="14"/>
-      <c r="AV112" s="14"/>
-      <c r="AW112" s="14"/>
-      <c r="AX112" s="14"/>
-      <c r="AY112" s="14"/>
-      <c r="AZ112" s="14"/>
-      <c r="BA112" s="14"/>
-      <c r="BB112" s="14"/>
-      <c r="BC112" s="14"/>
-      <c r="BD112" s="14"/>
-      <c r="BE112" s="14"/>
-      <c r="BF112" s="14"/>
-      <c r="BG112" s="14"/>
-      <c r="BH112" s="14"/>
-      <c r="BI112" s="14"/>
-      <c r="BJ112" s="14"/>
-      <c r="BK112" s="14"/>
-      <c r="BL112" s="14"/>
-      <c r="BM112" s="14"/>
-      <c r="BN112" s="14"/>
-      <c r="BO112" s="14"/>
-      <c r="BP112" s="14"/>
-      <c r="BQ112" s="14"/>
-      <c r="BR112" s="14"/>
-      <c r="BS112" s="14"/>
-      <c r="BT112" s="14"/>
-      <c r="BU112" s="14"/>
-      <c r="BV112" s="14"/>
-      <c r="BW112" s="14"/>
-      <c r="BX112" s="14"/>
-      <c r="BY112" s="14"/>
-      <c r="BZ112" s="14"/>
-      <c r="CA112" s="14"/>
-      <c r="CB112" s="14"/>
-      <c r="CC112" s="14"/>
-      <c r="CD112" s="14"/>
-      <c r="CE112" s="14"/>
-      <c r="CF112" s="14"/>
-      <c r="CG112" s="14"/>
-      <c r="CH112" s="14"/>
-      <c r="CI112" s="14"/>
-      <c r="CJ112" s="14"/>
-      <c r="CK112" s="14"/>
-      <c r="CL112" s="14"/>
-      <c r="CM112" s="14"/>
-      <c r="CN112" s="14"/>
-      <c r="CO112" s="14"/>
-      <c r="CP112" s="14"/>
-      <c r="CQ112" s="14"/>
-      <c r="CR112" s="14"/>
-      <c r="CS112" s="14"/>
-      <c r="CT112" s="14"/>
-      <c r="CU112" s="14"/>
-      <c r="CV112" s="14"/>
-      <c r="CW112" s="14"/>
-      <c r="CX112" s="14"/>
-      <c r="CY112" s="14"/>
-      <c r="CZ112" s="14"/>
-      <c r="DA112" s="14"/>
-      <c r="DB112" s="14"/>
-      <c r="DC112" s="14"/>
-      <c r="DD112" s="14"/>
-      <c r="DE112" s="14"/>
-      <c r="DF112" s="14"/>
-      <c r="DG112" s="14"/>
-      <c r="DH112" s="14"/>
-      <c r="DI112" s="14"/>
-      <c r="DJ112" s="14"/>
-      <c r="DK112" s="14"/>
-      <c r="DL112" s="14"/>
-      <c r="DM112" s="14"/>
-      <c r="DN112" s="14"/>
-      <c r="DO112" s="14"/>
-      <c r="DP112" s="14"/>
-      <c r="DQ112" s="14"/>
-      <c r="DR112" s="14"/>
-      <c r="DS112" s="14"/>
-      <c r="DT112" s="14"/>
-      <c r="DU112" s="14"/>
-      <c r="DV112" s="14"/>
-      <c r="DW112" s="14"/>
-      <c r="DX112" s="14"/>
-      <c r="DY112" s="14"/>
-      <c r="DZ112" s="14"/>
-      <c r="EA112" s="14"/>
-      <c r="EB112" s="14"/>
-      <c r="EC112" s="14"/>
-      <c r="ED112" s="14"/>
-      <c r="EE112" s="14"/>
-      <c r="EF112" s="14"/>
-      <c r="EG112" s="14"/>
-      <c r="EH112" s="14"/>
-      <c r="EI112" s="14"/>
-      <c r="EJ112" s="14"/>
-      <c r="EK112" s="14"/>
-      <c r="EL112" s="14"/>
-      <c r="EM112" s="14"/>
-      <c r="EN112" s="14"/>
-      <c r="EO112" s="14"/>
-      <c r="EP112" s="14"/>
-      <c r="EQ112" s="14"/>
-      <c r="ER112" s="14"/>
-      <c r="ES112" s="14"/>
-      <c r="ET112" s="14"/>
-      <c r="EU112" s="14"/>
-      <c r="EV112" s="14"/>
-      <c r="EW112" s="14"/>
-      <c r="EX112" s="14"/>
-      <c r="EY112" s="14"/>
-      <c r="EZ112" s="14"/>
-      <c r="FA112" s="14"/>
-      <c r="FB112" s="14"/>
-      <c r="FC112" s="14"/>
-      <c r="FD112" s="14"/>
-      <c r="FE112" s="14"/>
-      <c r="FF112" s="14"/>
-      <c r="FG112" s="14"/>
-      <c r="FH112" s="14"/>
-      <c r="FI112" s="14"/>
-      <c r="FJ112" s="14"/>
-      <c r="FK112" s="14"/>
-      <c r="FL112" s="14"/>
-      <c r="FM112" s="14"/>
-      <c r="FN112" s="14"/>
-      <c r="FO112" s="14"/>
-      <c r="FP112" s="14"/>
-      <c r="FQ112" s="14"/>
-      <c r="FR112" s="14"/>
-      <c r="FS112" s="14"/>
-      <c r="FT112" s="14"/>
-      <c r="FU112" s="14"/>
-      <c r="FV112" s="14"/>
-      <c r="FW112" s="14"/>
-      <c r="FX112" s="14"/>
-      <c r="FY112" s="14"/>
-      <c r="FZ112" s="14"/>
-      <c r="GA112" s="14"/>
-      <c r="GB112" s="14"/>
-      <c r="GC112" s="14"/>
-      <c r="GD112" s="14"/>
-      <c r="GE112" s="14"/>
-      <c r="GF112" s="14"/>
-      <c r="GG112" s="14"/>
-      <c r="GH112" s="14"/>
-      <c r="GI112" s="14"/>
-      <c r="GJ112" s="14"/>
-      <c r="GK112" s="14"/>
-      <c r="GL112" s="14"/>
-      <c r="GM112" s="14"/>
-      <c r="GN112" s="14"/>
-      <c r="GO112" s="14"/>
-      <c r="GP112" s="14"/>
-      <c r="GQ112" s="14"/>
-      <c r="GR112" s="14"/>
-      <c r="GS112" s="14"/>
-      <c r="GT112" s="14"/>
-      <c r="GU112" s="14"/>
-      <c r="GV112" s="14"/>
-      <c r="GW112" s="14"/>
-      <c r="GX112" s="14"/>
-      <c r="GY112" s="14"/>
-      <c r="GZ112" s="14"/>
-      <c r="HA112" s="14"/>
-      <c r="HB112" s="14"/>
-      <c r="HC112" s="14"/>
-      <c r="HD112" s="14"/>
-      <c r="HE112" s="14"/>
-      <c r="HF112" s="14"/>
-      <c r="HG112" s="14"/>
-      <c r="HH112" s="14"/>
-      <c r="HI112" s="14"/>
-      <c r="HJ112" s="14"/>
-      <c r="HK112" s="14"/>
-      <c r="HL112" s="14"/>
-      <c r="HM112" s="14"/>
-      <c r="HN112" s="14"/>
-      <c r="HO112" s="14"/>
-      <c r="HP112" s="14"/>
-      <c r="HQ112" s="14"/>
-      <c r="HR112" s="14"/>
-      <c r="HS112" s="14"/>
-      <c r="HT112" s="14"/>
-      <c r="HU112" s="14"/>
-      <c r="HV112" s="14"/>
-      <c r="HW112" s="14"/>
-      <c r="HX112" s="14"/>
-      <c r="HY112" s="14"/>
-      <c r="HZ112" s="14"/>
-      <c r="IA112" s="14"/>
-      <c r="IB112" s="14"/>
-      <c r="IC112" s="14"/>
-      <c r="ID112" s="14"/>
-      <c r="IE112" s="14"/>
-      <c r="IF112" s="14"/>
-      <c r="IG112" s="14"/>
-      <c r="IH112" s="14"/>
-      <c r="II112" s="14"/>
-      <c r="IJ112" s="14"/>
-      <c r="IK112" s="14"/>
-      <c r="IL112" s="14"/>
-      <c r="IM112" s="14"/>
-      <c r="IN112" s="14"/>
-      <c r="IO112" s="14"/>
-      <c r="IP112" s="14"/>
-      <c r="IQ112" s="14"/>
-      <c r="IR112" s="14"/>
-      <c r="IS112" s="14"/>
-      <c r="IT112" s="14"/>
-      <c r="IU112" s="14"/>
-      <c r="IV112" s="14"/>
-      <c r="IW112" s="14"/>
-      <c r="IX112" s="14"/>
-      <c r="IY112" s="14"/>
-      <c r="IZ112" s="14"/>
-      <c r="JA112" s="14"/>
-      <c r="JB112" s="14"/>
-      <c r="JC112" s="14"/>
-      <c r="JD112" s="14"/>
-      <c r="JE112" s="14"/>
-      <c r="JF112" s="14"/>
-      <c r="JG112" s="14"/>
-      <c r="JH112" s="14"/>
-      <c r="JI112" s="14"/>
-      <c r="JJ112" s="14"/>
-      <c r="JK112" s="14"/>
-      <c r="JL112" s="14"/>
-      <c r="JM112" s="14"/>
-      <c r="JN112" s="14"/>
-      <c r="JO112" s="14"/>
-      <c r="JP112" s="14"/>
-      <c r="JQ112" s="14"/>
-      <c r="JR112" s="14"/>
-      <c r="JS112" s="14"/>
-      <c r="JT112" s="14"/>
-      <c r="JU112" s="14"/>
-      <c r="JV112" s="14"/>
-      <c r="JW112" s="14"/>
-      <c r="JX112" s="14"/>
-      <c r="JY112" s="14"/>
-      <c r="JZ112" s="14"/>
-      <c r="KA112" s="14"/>
-      <c r="KB112" s="14"/>
-      <c r="KC112" s="14"/>
-      <c r="KD112" s="14"/>
-      <c r="KE112" s="14"/>
-      <c r="KF112" s="14"/>
-      <c r="KG112" s="14"/>
-      <c r="KH112" s="14"/>
-      <c r="KI112" s="14"/>
-      <c r="KJ112" s="14"/>
-      <c r="KK112" s="14"/>
-      <c r="KL112" s="14"/>
-      <c r="KM112" s="14"/>
-      <c r="KN112" s="14"/>
-      <c r="KO112" s="14"/>
-      <c r="KP112" s="14"/>
-      <c r="KQ112" s="14"/>
-      <c r="KR112" s="14"/>
-      <c r="KS112" s="14"/>
-      <c r="KT112" s="14"/>
-      <c r="KU112" s="14"/>
-      <c r="KV112" s="14"/>
-      <c r="KW112" s="14"/>
-      <c r="KX112" s="14"/>
-      <c r="KY112" s="14"/>
-      <c r="KZ112" s="14"/>
-      <c r="LA112" s="14"/>
-      <c r="LB112" s="14"/>
-      <c r="LC112" s="14"/>
-      <c r="LD112" s="14"/>
-      <c r="LE112" s="14"/>
-      <c r="LF112" s="14"/>
-      <c r="LG112" s="14"/>
-      <c r="LH112" s="14"/>
-      <c r="LI112" s="14"/>
-      <c r="LJ112" s="14"/>
-      <c r="LK112" s="14"/>
-      <c r="LL112" s="14"/>
-      <c r="LM112" s="14"/>
-      <c r="LN112" s="14"/>
-      <c r="LO112" s="14"/>
-      <c r="LP112" s="14"/>
-      <c r="LQ112" s="14"/>
-      <c r="LR112" s="14"/>
-      <c r="LS112" s="14"/>
-      <c r="LT112" s="14"/>
-      <c r="LU112" s="14"/>
-      <c r="LV112" s="14"/>
-      <c r="LW112" s="14"/>
-      <c r="LX112" s="14"/>
-      <c r="LY112" s="14"/>
-      <c r="LZ112" s="14"/>
-      <c r="MA112" s="14"/>
-      <c r="MB112" s="14"/>
-      <c r="MC112" s="14"/>
-      <c r="MD112" s="14"/>
-      <c r="ME112" s="14"/>
-      <c r="MF112" s="14"/>
-      <c r="MG112" s="14"/>
-      <c r="MH112" s="14"/>
-      <c r="MI112" s="14"/>
-      <c r="MJ112" s="14"/>
-      <c r="MK112" s="14"/>
-      <c r="ML112" s="14"/>
-      <c r="MM112" s="14"/>
-      <c r="MN112" s="14"/>
-      <c r="MO112" s="14"/>
-      <c r="MP112" s="14"/>
-      <c r="MQ112" s="14"/>
-      <c r="MR112" s="14"/>
-      <c r="MS112" s="14"/>
-      <c r="MT112" s="14"/>
-      <c r="MU112" s="14"/>
-      <c r="MV112" s="14"/>
-      <c r="MW112" s="14"/>
-      <c r="MX112" s="14"/>
-      <c r="MY112" s="14"/>
-      <c r="MZ112" s="14"/>
-      <c r="NA112" s="14"/>
-      <c r="NB112" s="14"/>
-      <c r="NC112" s="14"/>
-      <c r="ND112" s="14"/>
-      <c r="NE112" s="14"/>
-      <c r="NF112" s="14"/>
-      <c r="NG112" s="14"/>
-      <c r="NH112" s="14"/>
-      <c r="NI112" s="14"/>
-      <c r="NJ112" s="14"/>
-      <c r="NK112" s="14"/>
-      <c r="NL112" s="14"/>
-      <c r="NM112" s="14"/>
-      <c r="NN112" s="14"/>
-      <c r="NO112" s="14"/>
-      <c r="NP112" s="14"/>
-      <c r="NQ112" s="14"/>
-      <c r="NR112" s="14"/>
-      <c r="NS112" s="14"/>
-      <c r="NT112" s="14"/>
-      <c r="NU112" s="14"/>
-      <c r="NV112" s="14"/>
-      <c r="NW112" s="14"/>
-      <c r="NX112" s="14"/>
-      <c r="NY112" s="14"/>
-      <c r="NZ112" s="14"/>
-      <c r="OA112" s="14"/>
-      <c r="OB112" s="14"/>
-      <c r="OC112" s="14"/>
-      <c r="OD112" s="14"/>
-      <c r="OE112" s="14"/>
-      <c r="OF112" s="14"/>
-      <c r="OG112" s="14"/>
-      <c r="OH112" s="14"/>
-      <c r="OI112" s="14"/>
-      <c r="OJ112" s="14"/>
-      <c r="OK112" s="14"/>
-      <c r="OL112" s="14"/>
-      <c r="OM112" s="14"/>
-      <c r="ON112" s="14"/>
-      <c r="OO112" s="14"/>
-      <c r="OP112" s="14"/>
-      <c r="OQ112" s="14"/>
-      <c r="OR112" s="14"/>
-      <c r="OS112" s="14"/>
-      <c r="OT112" s="14"/>
-      <c r="OU112" s="14"/>
-      <c r="OV112" s="14"/>
-      <c r="OW112" s="14"/>
-      <c r="OX112" s="14"/>
-      <c r="OY112" s="14"/>
-      <c r="OZ112" s="14"/>
-      <c r="PA112" s="14"/>
-      <c r="PB112" s="14"/>
-      <c r="PC112" s="14"/>
-      <c r="PD112" s="14"/>
-      <c r="PE112" s="14"/>
-      <c r="PF112" s="14"/>
-      <c r="PG112" s="14"/>
-      <c r="PH112" s="14"/>
-      <c r="PI112" s="14"/>
-      <c r="PJ112" s="14"/>
-      <c r="PK112" s="14"/>
-      <c r="PL112" s="14"/>
-      <c r="PM112" s="14"/>
-      <c r="PN112" s="14"/>
-      <c r="PO112" s="14"/>
-      <c r="PP112" s="14"/>
-      <c r="PQ112" s="14"/>
-      <c r="PR112" s="14"/>
-      <c r="PS112" s="14"/>
-      <c r="PT112" s="14"/>
-      <c r="PU112" s="14"/>
-      <c r="PV112" s="14"/>
-      <c r="PW112" s="14"/>
-      <c r="PX112" s="14"/>
-      <c r="PY112" s="14"/>
-      <c r="PZ112" s="14"/>
-      <c r="QA112" s="14"/>
-      <c r="QB112" s="14"/>
-      <c r="QC112" s="14"/>
-      <c r="QD112" s="14"/>
-      <c r="QE112" s="14"/>
-      <c r="QF112" s="14"/>
-      <c r="QG112" s="14"/>
-      <c r="QH112" s="14"/>
-      <c r="QI112" s="14"/>
-      <c r="QJ112" s="14"/>
-      <c r="QK112" s="14"/>
-      <c r="QL112" s="14"/>
-      <c r="QM112" s="14"/>
-      <c r="QN112" s="14"/>
-      <c r="QO112" s="14"/>
-      <c r="QP112" s="14"/>
-      <c r="QQ112" s="14"/>
-      <c r="QR112" s="14"/>
-      <c r="QS112" s="14"/>
-      <c r="QT112" s="14"/>
-      <c r="QU112" s="14"/>
-      <c r="QV112" s="14"/>
-      <c r="QW112" s="14"/>
-      <c r="QX112" s="14"/>
-      <c r="QY112" s="14"/>
-      <c r="QZ112" s="14"/>
-      <c r="RA112" s="14"/>
-      <c r="RB112" s="14"/>
-      <c r="RC112" s="14"/>
-      <c r="RD112" s="14"/>
-      <c r="RE112" s="14"/>
-      <c r="RF112" s="14"/>
-      <c r="RG112" s="14"/>
-      <c r="RH112" s="14"/>
-      <c r="RI112" s="14"/>
-      <c r="RJ112" s="14"/>
-      <c r="RK112" s="14"/>
-      <c r="RL112" s="14"/>
-      <c r="RM112" s="14"/>
-      <c r="RN112" s="14"/>
-      <c r="RO112" s="14"/>
-      <c r="RP112" s="14"/>
-      <c r="RQ112" s="14"/>
-      <c r="RR112" s="14"/>
-      <c r="RS112" s="14"/>
-      <c r="RT112" s="14"/>
-      <c r="RU112" s="14"/>
-      <c r="RV112" s="14"/>
-      <c r="RW112" s="14"/>
-      <c r="RX112" s="14"/>
-      <c r="RY112" s="14"/>
-      <c r="RZ112" s="14"/>
-      <c r="SA112" s="14"/>
-      <c r="SB112" s="14"/>
-      <c r="SC112" s="14"/>
-      <c r="SD112" s="14"/>
-      <c r="SE112" s="14"/>
-      <c r="SF112" s="14"/>
-      <c r="SG112" s="14"/>
-      <c r="SH112" s="14"/>
-      <c r="SI112" s="14"/>
-      <c r="SJ112" s="14"/>
-      <c r="SK112" s="14"/>
-      <c r="SL112" s="14"/>
-      <c r="SM112" s="14"/>
-      <c r="SN112" s="14"/>
-      <c r="SO112" s="14"/>
-      <c r="SP112" s="14"/>
-      <c r="SQ112" s="14"/>
-      <c r="SR112" s="14"/>
-      <c r="SS112" s="14"/>
-      <c r="ST112" s="14"/>
-      <c r="SU112" s="14"/>
-      <c r="SV112" s="14"/>
-      <c r="SW112" s="14"/>
-      <c r="SX112" s="14"/>
-      <c r="SY112" s="14"/>
-      <c r="SZ112" s="14"/>
-      <c r="TA112" s="14"/>
-      <c r="TB112" s="14"/>
-      <c r="TC112" s="14"/>
-      <c r="TD112" s="14"/>
-      <c r="TE112" s="14"/>
-      <c r="TF112" s="14"/>
-      <c r="TG112" s="14"/>
-      <c r="TH112" s="14"/>
-      <c r="TI112" s="14"/>
-      <c r="TJ112" s="14"/>
-      <c r="TK112" s="14"/>
-      <c r="TL112" s="14"/>
-      <c r="TM112" s="14"/>
-      <c r="TN112" s="14"/>
-      <c r="TO112" s="14"/>
-      <c r="TP112" s="14"/>
-      <c r="TQ112" s="14"/>
-      <c r="TR112" s="14"/>
-      <c r="TS112" s="14"/>
-      <c r="TT112" s="14"/>
-      <c r="TU112" s="14"/>
-      <c r="TV112" s="14"/>
-      <c r="TW112" s="14"/>
-      <c r="TX112" s="14"/>
-      <c r="TY112" s="14"/>
-      <c r="TZ112" s="14"/>
-      <c r="UA112" s="14"/>
-      <c r="UB112" s="14"/>
-      <c r="UC112" s="14"/>
-      <c r="UD112" s="14"/>
-      <c r="UE112" s="14"/>
-      <c r="UF112" s="14"/>
-      <c r="UG112" s="14"/>
-      <c r="UH112" s="14"/>
-      <c r="UI112" s="14"/>
-      <c r="UJ112" s="14"/>
-      <c r="UK112" s="14"/>
-      <c r="UL112" s="14"/>
-      <c r="UM112" s="14"/>
-      <c r="UN112" s="14"/>
-      <c r="UO112" s="14"/>
-      <c r="UP112" s="14"/>
-      <c r="UQ112" s="14"/>
-      <c r="UR112" s="14"/>
-      <c r="US112" s="14"/>
-      <c r="UT112" s="14"/>
-      <c r="UU112" s="14"/>
-      <c r="UV112" s="14"/>
-      <c r="UW112" s="14"/>
-      <c r="UX112" s="14"/>
-      <c r="UY112" s="14"/>
-      <c r="UZ112" s="14"/>
-      <c r="VA112" s="14"/>
-      <c r="VB112" s="14"/>
-      <c r="VC112" s="14"/>
-      <c r="VD112" s="14"/>
-      <c r="VE112" s="14"/>
-      <c r="VF112" s="14"/>
-      <c r="VG112" s="14"/>
-      <c r="VH112" s="14"/>
-      <c r="VI112" s="14"/>
-      <c r="VJ112" s="14"/>
-      <c r="VK112" s="14"/>
-      <c r="VL112" s="14"/>
-      <c r="VM112" s="14"/>
-      <c r="VN112" s="14"/>
-      <c r="VO112" s="14"/>
-      <c r="VP112" s="14"/>
-      <c r="VQ112" s="14"/>
-      <c r="VR112" s="14"/>
-      <c r="VS112" s="14"/>
-      <c r="VT112" s="14"/>
-      <c r="VU112" s="14"/>
-      <c r="VV112" s="14"/>
-      <c r="VW112" s="14"/>
-      <c r="VX112" s="14"/>
-      <c r="VY112" s="14"/>
-      <c r="VZ112" s="14"/>
-      <c r="WA112" s="14"/>
-      <c r="WB112" s="14"/>
-      <c r="WC112" s="14"/>
-      <c r="WD112" s="14"/>
-      <c r="WE112" s="14"/>
-      <c r="WF112" s="14"/>
-      <c r="WG112" s="14"/>
-      <c r="WH112" s="14"/>
-      <c r="WI112" s="14"/>
-      <c r="WJ112" s="14"/>
-      <c r="WK112" s="14"/>
-      <c r="WL112" s="14"/>
-      <c r="WM112" s="14"/>
-      <c r="WN112" s="14"/>
-      <c r="WO112" s="14"/>
-      <c r="WP112" s="14"/>
-      <c r="WQ112" s="14"/>
-      <c r="WR112" s="14"/>
-      <c r="WS112" s="14"/>
-      <c r="WT112" s="14"/>
-      <c r="WU112" s="14"/>
-      <c r="WV112" s="14"/>
-      <c r="WW112" s="14"/>
-      <c r="WX112" s="14"/>
-      <c r="WY112" s="14"/>
-      <c r="WZ112" s="14"/>
-      <c r="XA112" s="14"/>
-      <c r="XB112" s="14"/>
-      <c r="XC112" s="14"/>
-      <c r="XD112" s="14"/>
-      <c r="XE112" s="14"/>
-      <c r="XF112" s="14"/>
-      <c r="XG112" s="14"/>
-      <c r="XH112" s="14"/>
-      <c r="XI112" s="14"/>
-      <c r="XJ112" s="14"/>
-      <c r="XK112" s="14"/>
-      <c r="XL112" s="14"/>
-      <c r="XM112" s="14"/>
-      <c r="XN112" s="14"/>
-      <c r="XO112" s="14"/>
-      <c r="XP112" s="14"/>
-      <c r="XQ112" s="14"/>
-      <c r="XR112" s="14"/>
-      <c r="XS112" s="14"/>
-      <c r="XT112" s="14"/>
-      <c r="XU112" s="14"/>
-      <c r="XV112" s="14"/>
-      <c r="XW112" s="14"/>
-      <c r="XX112" s="14"/>
-      <c r="XY112" s="14"/>
-      <c r="XZ112" s="14"/>
-      <c r="YA112" s="14"/>
-      <c r="YB112" s="14"/>
-      <c r="YC112" s="14"/>
-      <c r="YD112" s="14"/>
-      <c r="YE112" s="14"/>
-      <c r="YF112" s="14"/>
-      <c r="YG112" s="14"/>
-      <c r="YH112" s="14"/>
-      <c r="YI112" s="14"/>
-      <c r="YJ112" s="14"/>
-      <c r="YK112" s="14"/>
-      <c r="YL112" s="14"/>
-      <c r="YM112" s="14"/>
-      <c r="YN112" s="14"/>
-      <c r="YO112" s="14"/>
-      <c r="YP112" s="14"/>
-      <c r="YQ112" s="14"/>
-      <c r="YR112" s="14"/>
-      <c r="YS112" s="14"/>
-      <c r="YT112" s="14"/>
-      <c r="YU112" s="14"/>
-      <c r="YV112" s="14"/>
-      <c r="YW112" s="14"/>
-      <c r="YX112" s="14"/>
-      <c r="YY112" s="14"/>
-      <c r="YZ112" s="14"/>
-      <c r="ZA112" s="14"/>
-      <c r="ZB112" s="14"/>
-      <c r="ZC112" s="14"/>
-      <c r="ZD112" s="14"/>
-      <c r="ZE112" s="14"/>
-      <c r="ZF112" s="14"/>
-      <c r="ZG112" s="14"/>
-      <c r="ZH112" s="14"/>
-      <c r="ZI112" s="14"/>
-      <c r="ZJ112" s="14"/>
-      <c r="ZK112" s="14"/>
-      <c r="ZL112" s="14"/>
-      <c r="ZM112" s="14"/>
-      <c r="ZN112" s="14"/>
-      <c r="ZO112" s="14"/>
-      <c r="ZP112" s="14"/>
-      <c r="ZQ112" s="14"/>
-      <c r="ZR112" s="14"/>
-      <c r="ZS112" s="14"/>
-      <c r="ZT112" s="14"/>
-      <c r="ZU112" s="14"/>
-      <c r="ZV112" s="14"/>
-      <c r="ZW112" s="14"/>
-      <c r="ZX112" s="14"/>
-      <c r="ZY112" s="14"/>
-      <c r="ZZ112" s="14"/>
-      <c r="AAA112" s="14"/>
-      <c r="AAB112" s="14"/>
-      <c r="AAC112" s="14"/>
-      <c r="AAD112" s="14"/>
-      <c r="AAE112" s="14"/>
-      <c r="AAF112" s="14"/>
-      <c r="AAG112" s="14"/>
-      <c r="AAH112" s="14"/>
-      <c r="AAI112" s="14"/>
-      <c r="AAJ112" s="14"/>
-      <c r="AAK112" s="14"/>
-      <c r="AAL112" s="14"/>
-      <c r="AAM112" s="14"/>
-      <c r="AAN112" s="14"/>
-      <c r="AAO112" s="14"/>
-      <c r="AAP112" s="14"/>
-      <c r="AAQ112" s="14"/>
-      <c r="AAR112" s="14"/>
-      <c r="AAS112" s="14"/>
-      <c r="AAT112" s="14"/>
-      <c r="AAU112" s="14"/>
-      <c r="AAV112" s="14"/>
-      <c r="AAW112" s="14"/>
-      <c r="AAX112" s="14"/>
-      <c r="AAY112" s="14"/>
-      <c r="AAZ112" s="14"/>
-      <c r="ABA112" s="14"/>
-      <c r="ABB112" s="14"/>
-      <c r="ABC112" s="14"/>
-      <c r="ABD112" s="14"/>
-      <c r="ABE112" s="14"/>
-      <c r="ABF112" s="14"/>
-      <c r="ABG112" s="14"/>
-      <c r="ABH112" s="14"/>
-      <c r="ABI112" s="14"/>
-      <c r="ABJ112" s="14"/>
-      <c r="ABK112" s="14"/>
-      <c r="ABL112" s="14"/>
-      <c r="ABM112" s="14"/>
-      <c r="ABN112" s="14"/>
-      <c r="ABO112" s="14"/>
-      <c r="ABP112" s="14"/>
-      <c r="ABQ112" s="14"/>
-      <c r="ABR112" s="14"/>
-      <c r="ABS112" s="14"/>
-      <c r="ABT112" s="14"/>
-      <c r="ABU112" s="14"/>
-      <c r="ABV112" s="14"/>
-      <c r="ABW112" s="14"/>
-      <c r="ABX112" s="14"/>
-      <c r="ABY112" s="14"/>
-      <c r="ABZ112" s="14"/>
-      <c r="ACA112" s="14"/>
-      <c r="ACB112" s="14"/>
-      <c r="ACC112" s="14"/>
-      <c r="ACD112" s="14"/>
-      <c r="ACE112" s="14"/>
-      <c r="ACF112" s="14"/>
-      <c r="ACG112" s="14"/>
-      <c r="ACH112" s="14"/>
-      <c r="ACI112" s="14"/>
-      <c r="ACJ112" s="14"/>
-      <c r="ACK112" s="14"/>
-      <c r="ACL112" s="14"/>
-      <c r="ACM112" s="14"/>
-      <c r="ACN112" s="14"/>
-      <c r="ACO112" s="14"/>
-      <c r="ACP112" s="14"/>
-      <c r="ACQ112" s="14"/>
-      <c r="ACR112" s="14"/>
-      <c r="ACS112" s="14"/>
-      <c r="ACT112" s="14"/>
-      <c r="ACU112" s="14"/>
-      <c r="ACV112" s="14"/>
-      <c r="ACW112" s="14"/>
-      <c r="ACX112" s="14"/>
-      <c r="ACY112" s="14"/>
-      <c r="ACZ112" s="14"/>
-      <c r="ADA112" s="14"/>
-      <c r="ADB112" s="14"/>
-      <c r="ADC112" s="14"/>
-      <c r="ADD112" s="14"/>
-      <c r="ADE112" s="14"/>
-      <c r="ADF112" s="14"/>
-      <c r="ADG112" s="14"/>
-      <c r="ADH112" s="14"/>
-      <c r="ADI112" s="14"/>
-      <c r="ADJ112" s="14"/>
-      <c r="ADK112" s="14"/>
-      <c r="ADL112" s="14"/>
-      <c r="ADM112" s="14"/>
-      <c r="ADN112" s="14"/>
-      <c r="ADO112" s="14"/>
-      <c r="ADP112" s="14"/>
-      <c r="ADQ112" s="14"/>
-      <c r="ADR112" s="14"/>
-      <c r="ADS112" s="14"/>
-      <c r="ADT112" s="14"/>
-      <c r="ADU112" s="14"/>
-      <c r="ADV112" s="14"/>
-      <c r="ADW112" s="14"/>
-      <c r="ADX112" s="14"/>
-      <c r="ADY112" s="14"/>
-      <c r="ADZ112" s="14"/>
-      <c r="AEA112" s="14"/>
-      <c r="AEB112" s="14"/>
-      <c r="AEC112" s="14"/>
-      <c r="AED112" s="14"/>
-      <c r="AEE112" s="14"/>
-      <c r="AEF112" s="14"/>
-      <c r="AEG112" s="14"/>
-      <c r="AEH112" s="14"/>
-      <c r="AEI112" s="14"/>
-      <c r="AEJ112" s="14"/>
-      <c r="AEK112" s="14"/>
-      <c r="AEL112" s="14"/>
-      <c r="AEM112" s="14"/>
-      <c r="AEN112" s="14"/>
-      <c r="AEO112" s="14"/>
-      <c r="AEP112" s="14"/>
-      <c r="AEQ112" s="14"/>
-      <c r="AER112" s="14"/>
-      <c r="AES112" s="14"/>
-      <c r="AET112" s="14"/>
-      <c r="AEU112" s="14"/>
-      <c r="AEV112" s="14"/>
-      <c r="AEW112" s="14"/>
-      <c r="AEX112" s="14"/>
-      <c r="AEY112" s="14"/>
-      <c r="AEZ112" s="14"/>
-      <c r="AFA112" s="14"/>
-      <c r="AFB112" s="14"/>
-      <c r="AFC112" s="14"/>
-      <c r="AFD112" s="14"/>
-      <c r="AFE112" s="14"/>
-      <c r="AFF112" s="14"/>
-      <c r="AFG112" s="14"/>
-      <c r="AFH112" s="14"/>
-      <c r="AFI112" s="14"/>
-      <c r="AFJ112" s="14"/>
-      <c r="AFK112" s="14"/>
-      <c r="AFL112" s="14"/>
-      <c r="AFM112" s="14"/>
-      <c r="AFN112" s="14"/>
-      <c r="AFO112" s="14"/>
-      <c r="AFP112" s="14"/>
-      <c r="AFQ112" s="14"/>
-      <c r="AFR112" s="14"/>
-      <c r="AFS112" s="14"/>
-      <c r="AFT112" s="14"/>
-      <c r="AFU112" s="14"/>
-      <c r="AFV112" s="14"/>
-      <c r="AFW112" s="14"/>
-      <c r="AFX112" s="14"/>
-      <c r="AFY112" s="14"/>
-      <c r="AFZ112" s="14"/>
-      <c r="AGA112" s="14"/>
-      <c r="AGB112" s="14"/>
-      <c r="AGC112" s="14"/>
-      <c r="AGD112" s="14"/>
-      <c r="AGE112" s="14"/>
-      <c r="AGF112" s="14"/>
-      <c r="AGG112" s="14"/>
-      <c r="AGH112" s="14"/>
-      <c r="AGI112" s="14"/>
-      <c r="AGJ112" s="14"/>
-      <c r="AGK112" s="14"/>
-      <c r="AGL112" s="14"/>
-      <c r="AGM112" s="14"/>
-      <c r="AGN112" s="14"/>
-      <c r="AGO112" s="14"/>
-      <c r="AGP112" s="14"/>
-      <c r="AGQ112" s="14"/>
-      <c r="AGR112" s="14"/>
-      <c r="AGS112" s="14"/>
-      <c r="AGT112" s="14"/>
-      <c r="AGU112" s="14"/>
-      <c r="AGV112" s="14"/>
-      <c r="AGW112" s="14"/>
-      <c r="AGX112" s="14"/>
-      <c r="AGY112" s="14"/>
-      <c r="AGZ112" s="14"/>
-      <c r="AHA112" s="14"/>
-      <c r="AHB112" s="14"/>
-      <c r="AHC112" s="14"/>
-      <c r="AHD112" s="14"/>
-      <c r="AHE112" s="14"/>
-      <c r="AHF112" s="14"/>
-      <c r="AHG112" s="14"/>
-      <c r="AHH112" s="14"/>
-      <c r="AHI112" s="14"/>
-      <c r="AHJ112" s="14"/>
-      <c r="AHK112" s="14"/>
-      <c r="AHL112" s="14"/>
-      <c r="AHM112" s="14"/>
-      <c r="AHN112" s="14"/>
-      <c r="AHO112" s="14"/>
-      <c r="AHP112" s="14"/>
-      <c r="AHQ112" s="14"/>
-      <c r="AHR112" s="14"/>
-      <c r="AHS112" s="14"/>
-      <c r="AHT112" s="14"/>
-      <c r="AHU112" s="14"/>
-      <c r="AHV112" s="14"/>
-      <c r="AHW112" s="14"/>
-      <c r="AHX112" s="14"/>
-      <c r="AHY112" s="14"/>
-      <c r="AHZ112" s="14"/>
-      <c r="AIA112" s="14"/>
-      <c r="AIB112" s="14"/>
-      <c r="AIC112" s="14"/>
-      <c r="AID112" s="14"/>
-      <c r="AIE112" s="14"/>
-      <c r="AIF112" s="14"/>
-      <c r="AIG112" s="14"/>
-      <c r="AIH112" s="14"/>
-      <c r="AII112" s="14"/>
-      <c r="AIJ112" s="14"/>
-      <c r="AIK112" s="14"/>
-      <c r="AIL112" s="14"/>
-      <c r="AIM112" s="14"/>
-      <c r="AIN112" s="14"/>
-      <c r="AIO112" s="14"/>
-      <c r="AIP112" s="14"/>
-      <c r="AIQ112" s="14"/>
-      <c r="AIR112" s="14"/>
-      <c r="AIS112" s="14"/>
-      <c r="AIT112" s="14"/>
-      <c r="AIU112" s="14"/>
-      <c r="AIV112" s="14"/>
-      <c r="AIW112" s="14"/>
-      <c r="AIX112" s="14"/>
-      <c r="AIY112" s="14"/>
-      <c r="AIZ112" s="14"/>
-      <c r="AJA112" s="14"/>
-      <c r="AJB112" s="14"/>
-      <c r="AJC112" s="14"/>
-      <c r="AJD112" s="14"/>
-      <c r="AJE112" s="14"/>
-      <c r="AJF112" s="14"/>
-      <c r="AJG112" s="14"/>
-      <c r="AJH112" s="14"/>
-      <c r="AJI112" s="14"/>
-      <c r="AJJ112" s="14"/>
-      <c r="AJK112" s="14"/>
-      <c r="AJL112" s="14"/>
-      <c r="AJM112" s="14"/>
-      <c r="AJN112" s="14"/>
-      <c r="AJO112" s="14"/>
-      <c r="AJP112" s="14"/>
-      <c r="AJQ112" s="14"/>
-      <c r="AJR112" s="14"/>
-      <c r="AJS112" s="14"/>
-      <c r="AJT112" s="14"/>
-      <c r="AJU112" s="14"/>
-      <c r="AJV112" s="14"/>
-      <c r="AJW112" s="14"/>
-      <c r="AJX112" s="14"/>
-      <c r="AJY112" s="14"/>
-      <c r="AJZ112" s="14"/>
-      <c r="AKA112" s="14"/>
-      <c r="AKB112" s="14"/>
-      <c r="AKC112" s="14"/>
-      <c r="AKD112" s="14"/>
-      <c r="AKE112" s="14"/>
-      <c r="AKF112" s="14"/>
-      <c r="AKG112" s="14"/>
-      <c r="AKH112" s="14"/>
-      <c r="AKI112" s="14"/>
-      <c r="AKJ112" s="14"/>
-      <c r="AKK112" s="14"/>
-      <c r="AKL112" s="14"/>
-      <c r="AKM112" s="14"/>
-      <c r="AKN112" s="14"/>
-      <c r="AKO112" s="14"/>
-      <c r="AKP112" s="14"/>
-      <c r="AKQ112" s="14"/>
-      <c r="AKR112" s="14"/>
-      <c r="AKS112" s="14"/>
-      <c r="AKT112" s="14"/>
-      <c r="AKU112" s="14"/>
-      <c r="AKV112" s="14"/>
-      <c r="AKW112" s="14"/>
-      <c r="AKX112" s="14"/>
-      <c r="AKY112" s="14"/>
-      <c r="AKZ112" s="14"/>
-      <c r="ALA112" s="14"/>
-      <c r="ALB112" s="14"/>
-      <c r="ALC112" s="14"/>
-      <c r="ALD112" s="14"/>
-      <c r="ALE112" s="14"/>
-      <c r="ALF112" s="14"/>
-      <c r="ALG112" s="14"/>
-      <c r="ALH112" s="14"/>
-      <c r="ALI112" s="14"/>
-      <c r="ALJ112" s="14"/>
-      <c r="ALK112" s="14"/>
-      <c r="ALL112" s="14"/>
-      <c r="ALM112" s="14"/>
-      <c r="ALN112" s="14"/>
-      <c r="ALO112" s="14"/>
-      <c r="ALP112" s="14"/>
-      <c r="ALQ112" s="14"/>
-      <c r="ALR112" s="14"/>
-      <c r="ALS112" s="14"/>
-      <c r="ALT112" s="14"/>
-      <c r="ALU112" s="14"/>
-      <c r="ALV112" s="14"/>
-      <c r="ALW112" s="14"/>
-      <c r="ALX112" s="14"/>
-      <c r="ALY112" s="14"/>
-      <c r="ALZ112" s="14"/>
-      <c r="AMA112" s="14"/>
-      <c r="AMB112" s="14"/>
-      <c r="AMC112" s="14"/>
-      <c r="AMD112" s="14"/>
-      <c r="AME112" s="14"/>
-      <c r="AMF112" s="14"/>
-      <c r="AMG112" s="14"/>
-      <c r="AMH112" s="14"/>
-      <c r="AMI112" s="14"/>
-      <c r="AMJ112" s="14"/>
-    </row>
-    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="19"/>
-      <c r="AA113" s="14"/>
-      <c r="AB113" s="14"/>
-      <c r="AC113" s="14"/>
-      <c r="AD113" s="14"/>
-      <c r="AE113" s="14"/>
-      <c r="AF113" s="14"/>
-      <c r="AG113" s="14"/>
-      <c r="AH113" s="14"/>
-      <c r="AI113" s="14"/>
-      <c r="AJ113" s="14"/>
-      <c r="AK113" s="14"/>
-      <c r="AL113" s="14"/>
-      <c r="AM113" s="14"/>
-      <c r="AN113" s="14"/>
-      <c r="AO113" s="14"/>
-      <c r="AP113" s="14"/>
-      <c r="AQ113" s="14"/>
-      <c r="AR113" s="14"/>
-      <c r="AS113" s="14"/>
-      <c r="AT113" s="14"/>
-      <c r="AU113" s="14"/>
-      <c r="AV113" s="14"/>
-      <c r="AW113" s="14"/>
-      <c r="AX113" s="14"/>
-      <c r="AY113" s="14"/>
-      <c r="AZ113" s="14"/>
-      <c r="BA113" s="14"/>
-      <c r="BB113" s="14"/>
-      <c r="BC113" s="14"/>
-      <c r="BD113" s="14"/>
-      <c r="BE113" s="14"/>
-      <c r="BF113" s="14"/>
-      <c r="BG113" s="14"/>
-      <c r="BH113" s="14"/>
-      <c r="BI113" s="14"/>
-      <c r="BJ113" s="14"/>
-      <c r="BK113" s="14"/>
-      <c r="BL113" s="14"/>
-      <c r="BM113" s="14"/>
-      <c r="BN113" s="14"/>
-      <c r="BO113" s="14"/>
-      <c r="BP113" s="14"/>
-      <c r="BQ113" s="14"/>
-      <c r="BR113" s="14"/>
-      <c r="BS113" s="14"/>
-      <c r="BT113" s="14"/>
-      <c r="BU113" s="14"/>
-      <c r="BV113" s="14"/>
-      <c r="BW113" s="14"/>
-      <c r="BX113" s="14"/>
-      <c r="BY113" s="14"/>
-      <c r="BZ113" s="14"/>
-      <c r="CA113" s="14"/>
-      <c r="CB113" s="14"/>
-      <c r="CC113" s="14"/>
-      <c r="CD113" s="14"/>
-      <c r="CE113" s="14"/>
-      <c r="CF113" s="14"/>
-      <c r="CG113" s="14"/>
-      <c r="CH113" s="14"/>
-      <c r="CI113" s="14"/>
-      <c r="CJ113" s="14"/>
-      <c r="CK113" s="14"/>
-      <c r="CL113" s="14"/>
-      <c r="CM113" s="14"/>
-      <c r="CN113" s="14"/>
-      <c r="CO113" s="14"/>
-      <c r="CP113" s="14"/>
-      <c r="CQ113" s="14"/>
-      <c r="CR113" s="14"/>
-      <c r="CS113" s="14"/>
-      <c r="CT113" s="14"/>
-      <c r="CU113" s="14"/>
-      <c r="CV113" s="14"/>
-      <c r="CW113" s="14"/>
-      <c r="CX113" s="14"/>
-      <c r="CY113" s="14"/>
-      <c r="CZ113" s="14"/>
-      <c r="DA113" s="14"/>
-      <c r="DB113" s="14"/>
-      <c r="DC113" s="14"/>
-      <c r="DD113" s="14"/>
-      <c r="DE113" s="14"/>
-      <c r="DF113" s="14"/>
-      <c r="DG113" s="14"/>
-      <c r="DH113" s="14"/>
-      <c r="DI113" s="14"/>
-      <c r="DJ113" s="14"/>
-      <c r="DK113" s="14"/>
-      <c r="DL113" s="14"/>
-      <c r="DM113" s="14"/>
-      <c r="DN113" s="14"/>
-      <c r="DO113" s="14"/>
-      <c r="DP113" s="14"/>
-      <c r="DQ113" s="14"/>
-      <c r="DR113" s="14"/>
-      <c r="DS113" s="14"/>
-      <c r="DT113" s="14"/>
-      <c r="DU113" s="14"/>
-      <c r="DV113" s="14"/>
-      <c r="DW113" s="14"/>
-      <c r="DX113" s="14"/>
-      <c r="DY113" s="14"/>
-      <c r="DZ113" s="14"/>
-      <c r="EA113" s="14"/>
-      <c r="EB113" s="14"/>
-      <c r="EC113" s="14"/>
-      <c r="ED113" s="14"/>
-      <c r="EE113" s="14"/>
-      <c r="EF113" s="14"/>
-      <c r="EG113" s="14"/>
-      <c r="EH113" s="14"/>
-      <c r="EI113" s="14"/>
-      <c r="EJ113" s="14"/>
-      <c r="EK113" s="14"/>
-      <c r="EL113" s="14"/>
-      <c r="EM113" s="14"/>
-      <c r="EN113" s="14"/>
-      <c r="EO113" s="14"/>
-      <c r="EP113" s="14"/>
-      <c r="EQ113" s="14"/>
-      <c r="ER113" s="14"/>
-      <c r="ES113" s="14"/>
-      <c r="ET113" s="14"/>
-      <c r="EU113" s="14"/>
-      <c r="EV113" s="14"/>
-      <c r="EW113" s="14"/>
-      <c r="EX113" s="14"/>
-      <c r="EY113" s="14"/>
-      <c r="EZ113" s="14"/>
-      <c r="FA113" s="14"/>
-      <c r="FB113" s="14"/>
-      <c r="FC113" s="14"/>
-      <c r="FD113" s="14"/>
-      <c r="FE113" s="14"/>
-      <c r="FF113" s="14"/>
-      <c r="FG113" s="14"/>
-      <c r="FH113" s="14"/>
-      <c r="FI113" s="14"/>
-      <c r="FJ113" s="14"/>
-      <c r="FK113" s="14"/>
-      <c r="FL113" s="14"/>
-      <c r="FM113" s="14"/>
-      <c r="FN113" s="14"/>
-      <c r="FO113" s="14"/>
-      <c r="FP113" s="14"/>
-      <c r="FQ113" s="14"/>
-      <c r="FR113" s="14"/>
-      <c r="FS113" s="14"/>
-      <c r="FT113" s="14"/>
-      <c r="FU113" s="14"/>
-      <c r="FV113" s="14"/>
-      <c r="FW113" s="14"/>
-      <c r="FX113" s="14"/>
-      <c r="FY113" s="14"/>
-      <c r="FZ113" s="14"/>
-      <c r="GA113" s="14"/>
-      <c r="GB113" s="14"/>
-      <c r="GC113" s="14"/>
-      <c r="GD113" s="14"/>
-      <c r="GE113" s="14"/>
-      <c r="GF113" s="14"/>
-      <c r="GG113" s="14"/>
-      <c r="GH113" s="14"/>
-      <c r="GI113" s="14"/>
-      <c r="GJ113" s="14"/>
-      <c r="GK113" s="14"/>
-      <c r="GL113" s="14"/>
-      <c r="GM113" s="14"/>
-      <c r="GN113" s="14"/>
-      <c r="GO113" s="14"/>
-      <c r="GP113" s="14"/>
-      <c r="GQ113" s="14"/>
-      <c r="GR113" s="14"/>
-      <c r="GS113" s="14"/>
-      <c r="GT113" s="14"/>
-      <c r="GU113" s="14"/>
-      <c r="GV113" s="14"/>
-      <c r="GW113" s="14"/>
-      <c r="GX113" s="14"/>
-      <c r="GY113" s="14"/>
-      <c r="GZ113" s="14"/>
-      <c r="HA113" s="14"/>
-      <c r="HB113" s="14"/>
-      <c r="HC113" s="14"/>
-      <c r="HD113" s="14"/>
-      <c r="HE113" s="14"/>
-      <c r="HF113" s="14"/>
-      <c r="HG113" s="14"/>
-      <c r="HH113" s="14"/>
-      <c r="HI113" s="14"/>
-      <c r="HJ113" s="14"/>
-      <c r="HK113" s="14"/>
-      <c r="HL113" s="14"/>
-      <c r="HM113" s="14"/>
-      <c r="HN113" s="14"/>
-      <c r="HO113" s="14"/>
-      <c r="HP113" s="14"/>
-      <c r="HQ113" s="14"/>
-      <c r="HR113" s="14"/>
-      <c r="HS113" s="14"/>
-      <c r="HT113" s="14"/>
-      <c r="HU113" s="14"/>
-      <c r="HV113" s="14"/>
-      <c r="HW113" s="14"/>
-      <c r="HX113" s="14"/>
-      <c r="HY113" s="14"/>
-      <c r="HZ113" s="14"/>
-      <c r="IA113" s="14"/>
-      <c r="IB113" s="14"/>
-      <c r="IC113" s="14"/>
-      <c r="ID113" s="14"/>
-      <c r="IE113" s="14"/>
-      <c r="IF113" s="14"/>
-      <c r="IG113" s="14"/>
-      <c r="IH113" s="14"/>
-      <c r="II113" s="14"/>
-      <c r="IJ113" s="14"/>
-      <c r="IK113" s="14"/>
-      <c r="IL113" s="14"/>
-      <c r="IM113" s="14"/>
-      <c r="IN113" s="14"/>
-      <c r="IO113" s="14"/>
-      <c r="IP113" s="14"/>
-      <c r="IQ113" s="14"/>
-      <c r="IR113" s="14"/>
-      <c r="IS113" s="14"/>
-      <c r="IT113" s="14"/>
-      <c r="IU113" s="14"/>
-      <c r="IV113" s="14"/>
-      <c r="IW113" s="14"/>
-      <c r="IX113" s="14"/>
-      <c r="IY113" s="14"/>
-      <c r="IZ113" s="14"/>
-      <c r="JA113" s="14"/>
-      <c r="JB113" s="14"/>
-      <c r="JC113" s="14"/>
-      <c r="JD113" s="14"/>
-      <c r="JE113" s="14"/>
-      <c r="JF113" s="14"/>
-      <c r="JG113" s="14"/>
-      <c r="JH113" s="14"/>
-      <c r="JI113" s="14"/>
-      <c r="JJ113" s="14"/>
-      <c r="JK113" s="14"/>
-      <c r="JL113" s="14"/>
-      <c r="JM113" s="14"/>
-      <c r="JN113" s="14"/>
-      <c r="JO113" s="14"/>
-      <c r="JP113" s="14"/>
-      <c r="JQ113" s="14"/>
-      <c r="JR113" s="14"/>
-      <c r="JS113" s="14"/>
-      <c r="JT113" s="14"/>
-      <c r="JU113" s="14"/>
-      <c r="JV113" s="14"/>
-      <c r="JW113" s="14"/>
-      <c r="JX113" s="14"/>
-      <c r="JY113" s="14"/>
-      <c r="JZ113" s="14"/>
-      <c r="KA113" s="14"/>
-      <c r="KB113" s="14"/>
-      <c r="KC113" s="14"/>
-      <c r="KD113" s="14"/>
-      <c r="KE113" s="14"/>
-      <c r="KF113" s="14"/>
-      <c r="KG113" s="14"/>
-      <c r="KH113" s="14"/>
-      <c r="KI113" s="14"/>
-      <c r="KJ113" s="14"/>
-      <c r="KK113" s="14"/>
-      <c r="KL113" s="14"/>
-      <c r="KM113" s="14"/>
-      <c r="KN113" s="14"/>
-      <c r="KO113" s="14"/>
-      <c r="KP113" s="14"/>
-      <c r="KQ113" s="14"/>
-      <c r="KR113" s="14"/>
-      <c r="KS113" s="14"/>
-      <c r="KT113" s="14"/>
-      <c r="KU113" s="14"/>
-      <c r="KV113" s="14"/>
-      <c r="KW113" s="14"/>
-      <c r="KX113" s="14"/>
-      <c r="KY113" s="14"/>
-      <c r="KZ113" s="14"/>
-      <c r="LA113" s="14"/>
-      <c r="LB113" s="14"/>
-      <c r="LC113" s="14"/>
-      <c r="LD113" s="14"/>
-      <c r="LE113" s="14"/>
-      <c r="LF113" s="14"/>
-      <c r="LG113" s="14"/>
-      <c r="LH113" s="14"/>
-      <c r="LI113" s="14"/>
-      <c r="LJ113" s="14"/>
-      <c r="LK113" s="14"/>
-      <c r="LL113" s="14"/>
-      <c r="LM113" s="14"/>
-      <c r="LN113" s="14"/>
-      <c r="LO113" s="14"/>
-      <c r="LP113" s="14"/>
-      <c r="LQ113" s="14"/>
-      <c r="LR113" s="14"/>
-      <c r="LS113" s="14"/>
-      <c r="LT113" s="14"/>
-      <c r="LU113" s="14"/>
-      <c r="LV113" s="14"/>
-      <c r="LW113" s="14"/>
-      <c r="LX113" s="14"/>
-      <c r="LY113" s="14"/>
-      <c r="LZ113" s="14"/>
-      <c r="MA113" s="14"/>
-      <c r="MB113" s="14"/>
-      <c r="MC113" s="14"/>
-      <c r="MD113" s="14"/>
-      <c r="ME113" s="14"/>
-      <c r="MF113" s="14"/>
-      <c r="MG113" s="14"/>
-      <c r="MH113" s="14"/>
-      <c r="MI113" s="14"/>
-      <c r="MJ113" s="14"/>
-      <c r="MK113" s="14"/>
-      <c r="ML113" s="14"/>
-      <c r="MM113" s="14"/>
-      <c r="MN113" s="14"/>
-      <c r="MO113" s="14"/>
-      <c r="MP113" s="14"/>
-      <c r="MQ113" s="14"/>
-      <c r="MR113" s="14"/>
-      <c r="MS113" s="14"/>
-      <c r="MT113" s="14"/>
-      <c r="MU113" s="14"/>
-      <c r="MV113" s="14"/>
-      <c r="MW113" s="14"/>
-      <c r="MX113" s="14"/>
-      <c r="MY113" s="14"/>
-      <c r="MZ113" s="14"/>
-      <c r="NA113" s="14"/>
-      <c r="NB113" s="14"/>
-      <c r="NC113" s="14"/>
-      <c r="ND113" s="14"/>
-      <c r="NE113" s="14"/>
-      <c r="NF113" s="14"/>
-      <c r="NG113" s="14"/>
-      <c r="NH113" s="14"/>
-      <c r="NI113" s="14"/>
-      <c r="NJ113" s="14"/>
-      <c r="NK113" s="14"/>
-      <c r="NL113" s="14"/>
-      <c r="NM113" s="14"/>
-      <c r="NN113" s="14"/>
-      <c r="NO113" s="14"/>
-      <c r="NP113" s="14"/>
-      <c r="NQ113" s="14"/>
-      <c r="NR113" s="14"/>
-      <c r="NS113" s="14"/>
-      <c r="NT113" s="14"/>
-      <c r="NU113" s="14"/>
-      <c r="NV113" s="14"/>
-      <c r="NW113" s="14"/>
-      <c r="NX113" s="14"/>
-      <c r="NY113" s="14"/>
-      <c r="NZ113" s="14"/>
-      <c r="OA113" s="14"/>
-      <c r="OB113" s="14"/>
-      <c r="OC113" s="14"/>
-      <c r="OD113" s="14"/>
-      <c r="OE113" s="14"/>
-      <c r="OF113" s="14"/>
-      <c r="OG113" s="14"/>
-      <c r="OH113" s="14"/>
-      <c r="OI113" s="14"/>
-      <c r="OJ113" s="14"/>
-      <c r="OK113" s="14"/>
-      <c r="OL113" s="14"/>
-      <c r="OM113" s="14"/>
-      <c r="ON113" s="14"/>
-      <c r="OO113" s="14"/>
-      <c r="OP113" s="14"/>
-      <c r="OQ113" s="14"/>
-      <c r="OR113" s="14"/>
-      <c r="OS113" s="14"/>
-      <c r="OT113" s="14"/>
-      <c r="OU113" s="14"/>
-      <c r="OV113" s="14"/>
-      <c r="OW113" s="14"/>
-      <c r="OX113" s="14"/>
-      <c r="OY113" s="14"/>
-      <c r="OZ113" s="14"/>
-      <c r="PA113" s="14"/>
-      <c r="PB113" s="14"/>
-      <c r="PC113" s="14"/>
-      <c r="PD113" s="14"/>
-      <c r="PE113" s="14"/>
-      <c r="PF113" s="14"/>
-      <c r="PG113" s="14"/>
-      <c r="PH113" s="14"/>
-      <c r="PI113" s="14"/>
-      <c r="PJ113" s="14"/>
-      <c r="PK113" s="14"/>
-      <c r="PL113" s="14"/>
-      <c r="PM113" s="14"/>
-      <c r="PN113" s="14"/>
-      <c r="PO113" s="14"/>
-      <c r="PP113" s="14"/>
-      <c r="PQ113" s="14"/>
-      <c r="PR113" s="14"/>
-      <c r="PS113" s="14"/>
-      <c r="PT113" s="14"/>
-      <c r="PU113" s="14"/>
-      <c r="PV113" s="14"/>
-      <c r="PW113" s="14"/>
-      <c r="PX113" s="14"/>
-      <c r="PY113" s="14"/>
-      <c r="PZ113" s="14"/>
-      <c r="QA113" s="14"/>
-      <c r="QB113" s="14"/>
-      <c r="QC113" s="14"/>
-      <c r="QD113" s="14"/>
-      <c r="QE113" s="14"/>
-      <c r="QF113" s="14"/>
-      <c r="QG113" s="14"/>
-      <c r="QH113" s="14"/>
-      <c r="QI113" s="14"/>
-      <c r="QJ113" s="14"/>
-      <c r="QK113" s="14"/>
-      <c r="QL113" s="14"/>
-      <c r="QM113" s="14"/>
-      <c r="QN113" s="14"/>
-      <c r="QO113" s="14"/>
-      <c r="QP113" s="14"/>
-      <c r="QQ113" s="14"/>
-      <c r="QR113" s="14"/>
-      <c r="QS113" s="14"/>
-      <c r="QT113" s="14"/>
-      <c r="QU113" s="14"/>
-      <c r="QV113" s="14"/>
-      <c r="QW113" s="14"/>
-      <c r="QX113" s="14"/>
-      <c r="QY113" s="14"/>
-      <c r="QZ113" s="14"/>
-      <c r="RA113" s="14"/>
-      <c r="RB113" s="14"/>
-      <c r="RC113" s="14"/>
-      <c r="RD113" s="14"/>
-      <c r="RE113" s="14"/>
-      <c r="RF113" s="14"/>
-      <c r="RG113" s="14"/>
-      <c r="RH113" s="14"/>
-      <c r="RI113" s="14"/>
-      <c r="RJ113" s="14"/>
-      <c r="RK113" s="14"/>
-      <c r="RL113" s="14"/>
-      <c r="RM113" s="14"/>
-      <c r="RN113" s="14"/>
-      <c r="RO113" s="14"/>
-      <c r="RP113" s="14"/>
-      <c r="RQ113" s="14"/>
-      <c r="RR113" s="14"/>
-      <c r="RS113" s="14"/>
-      <c r="RT113" s="14"/>
-      <c r="RU113" s="14"/>
-      <c r="RV113" s="14"/>
-      <c r="RW113" s="14"/>
-      <c r="RX113" s="14"/>
-      <c r="RY113" s="14"/>
-      <c r="RZ113" s="14"/>
-      <c r="SA113" s="14"/>
-      <c r="SB113" s="14"/>
-      <c r="SC113" s="14"/>
-      <c r="SD113" s="14"/>
-      <c r="SE113" s="14"/>
-      <c r="SF113" s="14"/>
-      <c r="SG113" s="14"/>
-      <c r="SH113" s="14"/>
-      <c r="SI113" s="14"/>
-      <c r="SJ113" s="14"/>
-      <c r="SK113" s="14"/>
-      <c r="SL113" s="14"/>
-      <c r="SM113" s="14"/>
-      <c r="SN113" s="14"/>
-      <c r="SO113" s="14"/>
-      <c r="SP113" s="14"/>
-      <c r="SQ113" s="14"/>
-      <c r="SR113" s="14"/>
-      <c r="SS113" s="14"/>
-      <c r="ST113" s="14"/>
-      <c r="SU113" s="14"/>
-      <c r="SV113" s="14"/>
-      <c r="SW113" s="14"/>
-      <c r="SX113" s="14"/>
-      <c r="SY113" s="14"/>
-      <c r="SZ113" s="14"/>
-      <c r="TA113" s="14"/>
-      <c r="TB113" s="14"/>
-      <c r="TC113" s="14"/>
-      <c r="TD113" s="14"/>
-      <c r="TE113" s="14"/>
-      <c r="TF113" s="14"/>
-      <c r="TG113" s="14"/>
-      <c r="TH113" s="14"/>
-      <c r="TI113" s="14"/>
-      <c r="TJ113" s="14"/>
-      <c r="TK113" s="14"/>
-      <c r="TL113" s="14"/>
-      <c r="TM113" s="14"/>
-      <c r="TN113" s="14"/>
-      <c r="TO113" s="14"/>
-      <c r="TP113" s="14"/>
-      <c r="TQ113" s="14"/>
-      <c r="TR113" s="14"/>
-      <c r="TS113" s="14"/>
-      <c r="TT113" s="14"/>
-      <c r="TU113" s="14"/>
-      <c r="TV113" s="14"/>
-      <c r="TW113" s="14"/>
-      <c r="TX113" s="14"/>
-      <c r="TY113" s="14"/>
-      <c r="TZ113" s="14"/>
-      <c r="UA113" s="14"/>
-      <c r="UB113" s="14"/>
-      <c r="UC113" s="14"/>
-      <c r="UD113" s="14"/>
-      <c r="UE113" s="14"/>
-      <c r="UF113" s="14"/>
-      <c r="UG113" s="14"/>
-      <c r="UH113" s="14"/>
-      <c r="UI113" s="14"/>
-      <c r="UJ113" s="14"/>
-      <c r="UK113" s="14"/>
-      <c r="UL113" s="14"/>
-      <c r="UM113" s="14"/>
-      <c r="UN113" s="14"/>
-      <c r="UO113" s="14"/>
-      <c r="UP113" s="14"/>
-      <c r="UQ113" s="14"/>
-      <c r="UR113" s="14"/>
-      <c r="US113" s="14"/>
-      <c r="UT113" s="14"/>
-      <c r="UU113" s="14"/>
-      <c r="UV113" s="14"/>
-      <c r="UW113" s="14"/>
-      <c r="UX113" s="14"/>
-      <c r="UY113" s="14"/>
-      <c r="UZ113" s="14"/>
-      <c r="VA113" s="14"/>
-      <c r="VB113" s="14"/>
-      <c r="VC113" s="14"/>
-      <c r="VD113" s="14"/>
-      <c r="VE113" s="14"/>
-      <c r="VF113" s="14"/>
-      <c r="VG113" s="14"/>
-      <c r="VH113" s="14"/>
-      <c r="VI113" s="14"/>
-      <c r="VJ113" s="14"/>
-      <c r="VK113" s="14"/>
-      <c r="VL113" s="14"/>
-      <c r="VM113" s="14"/>
-      <c r="VN113" s="14"/>
-      <c r="VO113" s="14"/>
-      <c r="VP113" s="14"/>
-      <c r="VQ113" s="14"/>
-      <c r="VR113" s="14"/>
-      <c r="VS113" s="14"/>
-      <c r="VT113" s="14"/>
-      <c r="VU113" s="14"/>
-      <c r="VV113" s="14"/>
-      <c r="VW113" s="14"/>
-      <c r="VX113" s="14"/>
-      <c r="VY113" s="14"/>
-      <c r="VZ113" s="14"/>
-      <c r="WA113" s="14"/>
-      <c r="WB113" s="14"/>
-      <c r="WC113" s="14"/>
-      <c r="WD113" s="14"/>
-      <c r="WE113" s="14"/>
-      <c r="WF113" s="14"/>
-      <c r="WG113" s="14"/>
-      <c r="WH113" s="14"/>
-      <c r="WI113" s="14"/>
-      <c r="WJ113" s="14"/>
-      <c r="WK113" s="14"/>
-      <c r="WL113" s="14"/>
-      <c r="WM113" s="14"/>
-      <c r="WN113" s="14"/>
-      <c r="WO113" s="14"/>
-      <c r="WP113" s="14"/>
-      <c r="WQ113" s="14"/>
-      <c r="WR113" s="14"/>
-      <c r="WS113" s="14"/>
-      <c r="WT113" s="14"/>
-      <c r="WU113" s="14"/>
-      <c r="WV113" s="14"/>
-      <c r="WW113" s="14"/>
-      <c r="WX113" s="14"/>
-      <c r="WY113" s="14"/>
-      <c r="WZ113" s="14"/>
-      <c r="XA113" s="14"/>
-      <c r="XB113" s="14"/>
-      <c r="XC113" s="14"/>
-      <c r="XD113" s="14"/>
-      <c r="XE113" s="14"/>
-      <c r="XF113" s="14"/>
-      <c r="XG113" s="14"/>
-      <c r="XH113" s="14"/>
-      <c r="XI113" s="14"/>
-      <c r="XJ113" s="14"/>
-      <c r="XK113" s="14"/>
-      <c r="XL113" s="14"/>
-      <c r="XM113" s="14"/>
-      <c r="XN113" s="14"/>
-      <c r="XO113" s="14"/>
-      <c r="XP113" s="14"/>
-      <c r="XQ113" s="14"/>
-      <c r="XR113" s="14"/>
-      <c r="XS113" s="14"/>
-      <c r="XT113" s="14"/>
-      <c r="XU113" s="14"/>
-      <c r="XV113" s="14"/>
-      <c r="XW113" s="14"/>
-      <c r="XX113" s="14"/>
-      <c r="XY113" s="14"/>
-      <c r="XZ113" s="14"/>
-      <c r="YA113" s="14"/>
-      <c r="YB113" s="14"/>
-      <c r="YC113" s="14"/>
-      <c r="YD113" s="14"/>
-      <c r="YE113" s="14"/>
-      <c r="YF113" s="14"/>
-      <c r="YG113" s="14"/>
-      <c r="YH113" s="14"/>
-      <c r="YI113" s="14"/>
-      <c r="YJ113" s="14"/>
-      <c r="YK113" s="14"/>
-      <c r="YL113" s="14"/>
-      <c r="YM113" s="14"/>
-      <c r="YN113" s="14"/>
-      <c r="YO113" s="14"/>
-      <c r="YP113" s="14"/>
-      <c r="YQ113" s="14"/>
-      <c r="YR113" s="14"/>
-      <c r="YS113" s="14"/>
-      <c r="YT113" s="14"/>
-      <c r="YU113" s="14"/>
-      <c r="YV113" s="14"/>
-      <c r="YW113" s="14"/>
-      <c r="YX113" s="14"/>
-      <c r="YY113" s="14"/>
-      <c r="YZ113" s="14"/>
-      <c r="ZA113" s="14"/>
-      <c r="ZB113" s="14"/>
-      <c r="ZC113" s="14"/>
-      <c r="ZD113" s="14"/>
-      <c r="ZE113" s="14"/>
-      <c r="ZF113" s="14"/>
-      <c r="ZG113" s="14"/>
-      <c r="ZH113" s="14"/>
-      <c r="ZI113" s="14"/>
-      <c r="ZJ113" s="14"/>
-      <c r="ZK113" s="14"/>
-      <c r="ZL113" s="14"/>
-      <c r="ZM113" s="14"/>
-      <c r="ZN113" s="14"/>
-      <c r="ZO113" s="14"/>
-      <c r="ZP113" s="14"/>
-      <c r="ZQ113" s="14"/>
-      <c r="ZR113" s="14"/>
-      <c r="ZS113" s="14"/>
-      <c r="ZT113" s="14"/>
-      <c r="ZU113" s="14"/>
-      <c r="ZV113" s="14"/>
-      <c r="ZW113" s="14"/>
-      <c r="ZX113" s="14"/>
-      <c r="ZY113" s="14"/>
-      <c r="ZZ113" s="14"/>
-      <c r="AAA113" s="14"/>
-      <c r="AAB113" s="14"/>
-      <c r="AAC113" s="14"/>
-      <c r="AAD113" s="14"/>
-      <c r="AAE113" s="14"/>
-      <c r="AAF113" s="14"/>
-      <c r="AAG113" s="14"/>
-      <c r="AAH113" s="14"/>
-      <c r="AAI113" s="14"/>
-      <c r="AAJ113" s="14"/>
-      <c r="AAK113" s="14"/>
-      <c r="AAL113" s="14"/>
-      <c r="AAM113" s="14"/>
-      <c r="AAN113" s="14"/>
-      <c r="AAO113" s="14"/>
-      <c r="AAP113" s="14"/>
-      <c r="AAQ113" s="14"/>
-      <c r="AAR113" s="14"/>
-      <c r="AAS113" s="14"/>
-      <c r="AAT113" s="14"/>
-      <c r="AAU113" s="14"/>
-      <c r="AAV113" s="14"/>
-      <c r="AAW113" s="14"/>
-      <c r="AAX113" s="14"/>
-      <c r="AAY113" s="14"/>
-      <c r="AAZ113" s="14"/>
-      <c r="ABA113" s="14"/>
-      <c r="ABB113" s="14"/>
-      <c r="ABC113" s="14"/>
-      <c r="ABD113" s="14"/>
-      <c r="ABE113" s="14"/>
-      <c r="ABF113" s="14"/>
-      <c r="ABG113" s="14"/>
-      <c r="ABH113" s="14"/>
-      <c r="ABI113" s="14"/>
-      <c r="ABJ113" s="14"/>
-      <c r="ABK113" s="14"/>
-      <c r="ABL113" s="14"/>
-      <c r="ABM113" s="14"/>
-      <c r="ABN113" s="14"/>
-      <c r="ABO113" s="14"/>
-      <c r="ABP113" s="14"/>
-      <c r="ABQ113" s="14"/>
-      <c r="ABR113" s="14"/>
-      <c r="ABS113" s="14"/>
-      <c r="ABT113" s="14"/>
-      <c r="ABU113" s="14"/>
-      <c r="ABV113" s="14"/>
-      <c r="ABW113" s="14"/>
-      <c r="ABX113" s="14"/>
-      <c r="ABY113" s="14"/>
-      <c r="ABZ113" s="14"/>
-      <c r="ACA113" s="14"/>
-      <c r="ACB113" s="14"/>
-      <c r="ACC113" s="14"/>
-      <c r="ACD113" s="14"/>
-      <c r="ACE113" s="14"/>
-      <c r="ACF113" s="14"/>
-      <c r="ACG113" s="14"/>
-      <c r="ACH113" s="14"/>
-      <c r="ACI113" s="14"/>
-      <c r="ACJ113" s="14"/>
-      <c r="ACK113" s="14"/>
-      <c r="ACL113" s="14"/>
-      <c r="ACM113" s="14"/>
-      <c r="ACN113" s="14"/>
-      <c r="ACO113" s="14"/>
-      <c r="ACP113" s="14"/>
-      <c r="ACQ113" s="14"/>
-      <c r="ACR113" s="14"/>
-      <c r="ACS113" s="14"/>
-      <c r="ACT113" s="14"/>
-      <c r="ACU113" s="14"/>
-      <c r="ACV113" s="14"/>
-      <c r="ACW113" s="14"/>
-      <c r="ACX113" s="14"/>
-      <c r="ACY113" s="14"/>
-      <c r="ACZ113" s="14"/>
-      <c r="ADA113" s="14"/>
-      <c r="ADB113" s="14"/>
-      <c r="ADC113" s="14"/>
-      <c r="ADD113" s="14"/>
-      <c r="ADE113" s="14"/>
-      <c r="ADF113" s="14"/>
-      <c r="ADG113" s="14"/>
-      <c r="ADH113" s="14"/>
-      <c r="ADI113" s="14"/>
-      <c r="ADJ113" s="14"/>
-      <c r="ADK113" s="14"/>
-      <c r="ADL113" s="14"/>
-      <c r="ADM113" s="14"/>
-      <c r="ADN113" s="14"/>
-      <c r="ADO113" s="14"/>
-      <c r="ADP113" s="14"/>
-      <c r="ADQ113" s="14"/>
-      <c r="ADR113" s="14"/>
-      <c r="ADS113" s="14"/>
-      <c r="ADT113" s="14"/>
-      <c r="ADU113" s="14"/>
-      <c r="ADV113" s="14"/>
-      <c r="ADW113" s="14"/>
-      <c r="ADX113" s="14"/>
-      <c r="ADY113" s="14"/>
-      <c r="ADZ113" s="14"/>
-      <c r="AEA113" s="14"/>
-      <c r="AEB113" s="14"/>
-      <c r="AEC113" s="14"/>
-      <c r="AED113" s="14"/>
-      <c r="AEE113" s="14"/>
-      <c r="AEF113" s="14"/>
-      <c r="AEG113" s="14"/>
-      <c r="AEH113" s="14"/>
-      <c r="AEI113" s="14"/>
-      <c r="AEJ113" s="14"/>
-      <c r="AEK113" s="14"/>
-      <c r="AEL113" s="14"/>
-      <c r="AEM113" s="14"/>
-      <c r="AEN113" s="14"/>
-      <c r="AEO113" s="14"/>
-      <c r="AEP113" s="14"/>
-      <c r="AEQ113" s="14"/>
-      <c r="AER113" s="14"/>
-      <c r="AES113" s="14"/>
-      <c r="AET113" s="14"/>
-      <c r="AEU113" s="14"/>
-      <c r="AEV113" s="14"/>
-      <c r="AEW113" s="14"/>
-      <c r="AEX113" s="14"/>
-      <c r="AEY113" s="14"/>
-      <c r="AEZ113" s="14"/>
-      <c r="AFA113" s="14"/>
-      <c r="AFB113" s="14"/>
-      <c r="AFC113" s="14"/>
-      <c r="AFD113" s="14"/>
-      <c r="AFE113" s="14"/>
-      <c r="AFF113" s="14"/>
-      <c r="AFG113" s="14"/>
-      <c r="AFH113" s="14"/>
-      <c r="AFI113" s="14"/>
-      <c r="AFJ113" s="14"/>
-      <c r="AFK113" s="14"/>
-      <c r="AFL113" s="14"/>
-      <c r="AFM113" s="14"/>
-      <c r="AFN113" s="14"/>
-      <c r="AFO113" s="14"/>
-      <c r="AFP113" s="14"/>
-      <c r="AFQ113" s="14"/>
-      <c r="AFR113" s="14"/>
-      <c r="AFS113" s="14"/>
-      <c r="AFT113" s="14"/>
-      <c r="AFU113" s="14"/>
-      <c r="AFV113" s="14"/>
-      <c r="AFW113" s="14"/>
-      <c r="AFX113" s="14"/>
-      <c r="AFY113" s="14"/>
-      <c r="AFZ113" s="14"/>
-      <c r="AGA113" s="14"/>
-      <c r="AGB113" s="14"/>
-      <c r="AGC113" s="14"/>
-      <c r="AGD113" s="14"/>
-      <c r="AGE113" s="14"/>
-      <c r="AGF113" s="14"/>
-      <c r="AGG113" s="14"/>
-      <c r="AGH113" s="14"/>
-      <c r="AGI113" s="14"/>
-      <c r="AGJ113" s="14"/>
-      <c r="AGK113" s="14"/>
-      <c r="AGL113" s="14"/>
-      <c r="AGM113" s="14"/>
-      <c r="AGN113" s="14"/>
-      <c r="AGO113" s="14"/>
-      <c r="AGP113" s="14"/>
-      <c r="AGQ113" s="14"/>
-      <c r="AGR113" s="14"/>
-      <c r="AGS113" s="14"/>
-      <c r="AGT113" s="14"/>
-      <c r="AGU113" s="14"/>
-      <c r="AGV113" s="14"/>
-      <c r="AGW113" s="14"/>
-      <c r="AGX113" s="14"/>
-      <c r="AGY113" s="14"/>
-      <c r="AGZ113" s="14"/>
-      <c r="AHA113" s="14"/>
-      <c r="AHB113" s="14"/>
-      <c r="AHC113" s="14"/>
-      <c r="AHD113" s="14"/>
-      <c r="AHE113" s="14"/>
-      <c r="AHF113" s="14"/>
-      <c r="AHG113" s="14"/>
-      <c r="AHH113" s="14"/>
-      <c r="AHI113" s="14"/>
-      <c r="AHJ113" s="14"/>
-      <c r="AHK113" s="14"/>
-      <c r="AHL113" s="14"/>
-      <c r="AHM113" s="14"/>
-      <c r="AHN113" s="14"/>
-      <c r="AHO113" s="14"/>
-      <c r="AHP113" s="14"/>
-      <c r="AHQ113" s="14"/>
-      <c r="AHR113" s="14"/>
-      <c r="AHS113" s="14"/>
-      <c r="AHT113" s="14"/>
-      <c r="AHU113" s="14"/>
-      <c r="AHV113" s="14"/>
-      <c r="AHW113" s="14"/>
-      <c r="AHX113" s="14"/>
-      <c r="AHY113" s="14"/>
-      <c r="AHZ113" s="14"/>
-      <c r="AIA113" s="14"/>
-      <c r="AIB113" s="14"/>
-      <c r="AIC113" s="14"/>
-      <c r="AID113" s="14"/>
-      <c r="AIE113" s="14"/>
-      <c r="AIF113" s="14"/>
-      <c r="AIG113" s="14"/>
-      <c r="AIH113" s="14"/>
-      <c r="AII113" s="14"/>
-      <c r="AIJ113" s="14"/>
-      <c r="AIK113" s="14"/>
-      <c r="AIL113" s="14"/>
-      <c r="AIM113" s="14"/>
-      <c r="AIN113" s="14"/>
-      <c r="AIO113" s="14"/>
-      <c r="AIP113" s="14"/>
-      <c r="AIQ113" s="14"/>
-      <c r="AIR113" s="14"/>
-      <c r="AIS113" s="14"/>
-      <c r="AIT113" s="14"/>
-      <c r="AIU113" s="14"/>
-      <c r="AIV113" s="14"/>
-      <c r="AIW113" s="14"/>
-      <c r="AIX113" s="14"/>
-      <c r="AIY113" s="14"/>
-      <c r="AIZ113" s="14"/>
-      <c r="AJA113" s="14"/>
-      <c r="AJB113" s="14"/>
-      <c r="AJC113" s="14"/>
-      <c r="AJD113" s="14"/>
-      <c r="AJE113" s="14"/>
-      <c r="AJF113" s="14"/>
-      <c r="AJG113" s="14"/>
-      <c r="AJH113" s="14"/>
-      <c r="AJI113" s="14"/>
-      <c r="AJJ113" s="14"/>
-      <c r="AJK113" s="14"/>
-      <c r="AJL113" s="14"/>
-      <c r="AJM113" s="14"/>
-      <c r="AJN113" s="14"/>
-      <c r="AJO113" s="14"/>
-      <c r="AJP113" s="14"/>
-      <c r="AJQ113" s="14"/>
-      <c r="AJR113" s="14"/>
-      <c r="AJS113" s="14"/>
-      <c r="AJT113" s="14"/>
-      <c r="AJU113" s="14"/>
-      <c r="AJV113" s="14"/>
-      <c r="AJW113" s="14"/>
-      <c r="AJX113" s="14"/>
-      <c r="AJY113" s="14"/>
-      <c r="AJZ113" s="14"/>
-      <c r="AKA113" s="14"/>
-      <c r="AKB113" s="14"/>
-      <c r="AKC113" s="14"/>
-      <c r="AKD113" s="14"/>
-      <c r="AKE113" s="14"/>
-      <c r="AKF113" s="14"/>
-      <c r="AKG113" s="14"/>
-      <c r="AKH113" s="14"/>
-      <c r="AKI113" s="14"/>
-      <c r="AKJ113" s="14"/>
-      <c r="AKK113" s="14"/>
-      <c r="AKL113" s="14"/>
-      <c r="AKM113" s="14"/>
-      <c r="AKN113" s="14"/>
-      <c r="AKO113" s="14"/>
-      <c r="AKP113" s="14"/>
-      <c r="AKQ113" s="14"/>
-      <c r="AKR113" s="14"/>
-      <c r="AKS113" s="14"/>
-      <c r="AKT113" s="14"/>
-      <c r="AKU113" s="14"/>
-      <c r="AKV113" s="14"/>
-      <c r="AKW113" s="14"/>
-      <c r="AKX113" s="14"/>
-      <c r="AKY113" s="14"/>
-      <c r="AKZ113" s="14"/>
-      <c r="ALA113" s="14"/>
-      <c r="ALB113" s="14"/>
-      <c r="ALC113" s="14"/>
-      <c r="ALD113" s="14"/>
-      <c r="ALE113" s="14"/>
-      <c r="ALF113" s="14"/>
-      <c r="ALG113" s="14"/>
-      <c r="ALH113" s="14"/>
-      <c r="ALI113" s="14"/>
-      <c r="ALJ113" s="14"/>
-      <c r="ALK113" s="14"/>
-      <c r="ALL113" s="14"/>
-      <c r="ALM113" s="14"/>
-      <c r="ALN113" s="14"/>
-      <c r="ALO113" s="14"/>
-      <c r="ALP113" s="14"/>
-      <c r="ALQ113" s="14"/>
-      <c r="ALR113" s="14"/>
-      <c r="ALS113" s="14"/>
-      <c r="ALT113" s="14"/>
-      <c r="ALU113" s="14"/>
-      <c r="ALV113" s="14"/>
-      <c r="ALW113" s="14"/>
-      <c r="ALX113" s="14"/>
-      <c r="ALY113" s="14"/>
-      <c r="ALZ113" s="14"/>
-      <c r="AMA113" s="14"/>
-      <c r="AMB113" s="14"/>
-      <c r="AMC113" s="14"/>
-      <c r="AMD113" s="14"/>
-      <c r="AME113" s="14"/>
-      <c r="AMF113" s="14"/>
-      <c r="AMG113" s="14"/>
-      <c r="AMH113" s="14"/>
-      <c r="AMI113" s="14"/>
-      <c r="AMJ113" s="14"/>
-    </row>
-    <row r="114" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="AA112" s="13"/>
+      <c r="AB112" s="13"/>
+      <c r="AC112" s="13"/>
+      <c r="AD112" s="13"/>
+      <c r="AE112" s="13"/>
+      <c r="AF112" s="13"/>
+      <c r="AG112" s="13"/>
+      <c r="AH112" s="13"/>
+      <c r="AI112" s="13"/>
+      <c r="AJ112" s="13"/>
+      <c r="AK112" s="13"/>
+      <c r="AL112" s="13"/>
+      <c r="AM112" s="13"/>
+      <c r="AN112" s="13"/>
+      <c r="AO112" s="13"/>
+      <c r="AP112" s="13"/>
+      <c r="AQ112" s="13"/>
+      <c r="AR112" s="13"/>
+      <c r="AS112" s="13"/>
+      <c r="AT112" s="13"/>
+      <c r="AU112" s="13"/>
+      <c r="AV112" s="13"/>
+      <c r="AW112" s="13"/>
+      <c r="AX112" s="13"/>
+      <c r="AY112" s="13"/>
+      <c r="AZ112" s="13"/>
+      <c r="BA112" s="13"/>
+      <c r="BB112" s="13"/>
+      <c r="BC112" s="13"/>
+      <c r="BD112" s="13"/>
+      <c r="BE112" s="13"/>
+      <c r="BF112" s="13"/>
+      <c r="BG112" s="13"/>
+      <c r="BH112" s="13"/>
+      <c r="BI112" s="13"/>
+      <c r="BJ112" s="13"/>
+      <c r="BK112" s="13"/>
+      <c r="BL112" s="13"/>
+      <c r="BM112" s="13"/>
+      <c r="BN112" s="13"/>
+      <c r="BO112" s="13"/>
+      <c r="BP112" s="13"/>
+      <c r="BQ112" s="13"/>
+      <c r="BR112" s="13"/>
+      <c r="BS112" s="13"/>
+      <c r="BT112" s="13"/>
+      <c r="BU112" s="13"/>
+      <c r="BV112" s="13"/>
+      <c r="BW112" s="13"/>
+      <c r="BX112" s="13"/>
+      <c r="BY112" s="13"/>
+      <c r="BZ112" s="13"/>
+      <c r="CA112" s="13"/>
+      <c r="CB112" s="13"/>
+      <c r="CC112" s="13"/>
+      <c r="CD112" s="13"/>
+      <c r="CE112" s="13"/>
+      <c r="CF112" s="13"/>
+      <c r="CG112" s="13"/>
+      <c r="CH112" s="13"/>
+      <c r="CI112" s="13"/>
+      <c r="CJ112" s="13"/>
+      <c r="CK112" s="13"/>
+      <c r="CL112" s="13"/>
+      <c r="CM112" s="13"/>
+      <c r="CN112" s="13"/>
+      <c r="CO112" s="13"/>
+      <c r="CP112" s="13"/>
+      <c r="CQ112" s="13"/>
+      <c r="CR112" s="13"/>
+      <c r="CS112" s="13"/>
+      <c r="CT112" s="13"/>
+      <c r="CU112" s="13"/>
+      <c r="CV112" s="13"/>
+      <c r="CW112" s="13"/>
+      <c r="CX112" s="13"/>
+      <c r="CY112" s="13"/>
+      <c r="CZ112" s="13"/>
+      <c r="DA112" s="13"/>
+      <c r="DB112" s="13"/>
+      <c r="DC112" s="13"/>
+      <c r="DD112" s="13"/>
+      <c r="DE112" s="13"/>
+      <c r="DF112" s="13"/>
+      <c r="DG112" s="13"/>
+      <c r="DH112" s="13"/>
+      <c r="DI112" s="13"/>
+      <c r="DJ112" s="13"/>
+      <c r="DK112" s="13"/>
+      <c r="DL112" s="13"/>
+      <c r="DM112" s="13"/>
+      <c r="DN112" s="13"/>
+      <c r="DO112" s="13"/>
+      <c r="DP112" s="13"/>
+      <c r="DQ112" s="13"/>
+      <c r="DR112" s="13"/>
+      <c r="DS112" s="13"/>
+      <c r="DT112" s="13"/>
+      <c r="DU112" s="13"/>
+      <c r="DV112" s="13"/>
+      <c r="DW112" s="13"/>
+      <c r="DX112" s="13"/>
+      <c r="DY112" s="13"/>
+      <c r="DZ112" s="13"/>
+      <c r="EA112" s="13"/>
+      <c r="EB112" s="13"/>
+      <c r="EC112" s="13"/>
+      <c r="ED112" s="13"/>
+      <c r="EE112" s="13"/>
+      <c r="EF112" s="13"/>
+      <c r="EG112" s="13"/>
+      <c r="EH112" s="13"/>
+      <c r="EI112" s="13"/>
+      <c r="EJ112" s="13"/>
+      <c r="EK112" s="13"/>
+      <c r="EL112" s="13"/>
+      <c r="EM112" s="13"/>
+      <c r="EN112" s="13"/>
+      <c r="EO112" s="13"/>
+      <c r="EP112" s="13"/>
+      <c r="EQ112" s="13"/>
+      <c r="ER112" s="13"/>
+      <c r="ES112" s="13"/>
+      <c r="ET112" s="13"/>
+      <c r="EU112" s="13"/>
+      <c r="EV112" s="13"/>
+      <c r="EW112" s="13"/>
+      <c r="EX112" s="13"/>
+      <c r="EY112" s="13"/>
+      <c r="EZ112" s="13"/>
+      <c r="FA112" s="13"/>
+      <c r="FB112" s="13"/>
+      <c r="FC112" s="13"/>
+      <c r="FD112" s="13"/>
+      <c r="FE112" s="13"/>
+      <c r="FF112" s="13"/>
+      <c r="FG112" s="13"/>
+      <c r="FH112" s="13"/>
+      <c r="FI112" s="13"/>
+      <c r="FJ112" s="13"/>
+      <c r="FK112" s="13"/>
+      <c r="FL112" s="13"/>
+      <c r="FM112" s="13"/>
+      <c r="FN112" s="13"/>
+      <c r="FO112" s="13"/>
+      <c r="FP112" s="13"/>
+      <c r="FQ112" s="13"/>
+      <c r="FR112" s="13"/>
+      <c r="FS112" s="13"/>
+      <c r="FT112" s="13"/>
+      <c r="FU112" s="13"/>
+      <c r="FV112" s="13"/>
+      <c r="FW112" s="13"/>
+      <c r="FX112" s="13"/>
+      <c r="FY112" s="13"/>
+      <c r="FZ112" s="13"/>
+      <c r="GA112" s="13"/>
+      <c r="GB112" s="13"/>
+      <c r="GC112" s="13"/>
+      <c r="GD112" s="13"/>
+      <c r="GE112" s="13"/>
+      <c r="GF112" s="13"/>
+      <c r="GG112" s="13"/>
+      <c r="GH112" s="13"/>
+      <c r="GI112" s="13"/>
+      <c r="GJ112" s="13"/>
+      <c r="GK112" s="13"/>
+      <c r="GL112" s="13"/>
+      <c r="GM112" s="13"/>
+      <c r="GN112" s="13"/>
+      <c r="GO112" s="13"/>
+      <c r="GP112" s="13"/>
+      <c r="GQ112" s="13"/>
+      <c r="GR112" s="13"/>
+      <c r="GS112" s="13"/>
+      <c r="GT112" s="13"/>
+      <c r="GU112" s="13"/>
+      <c r="GV112" s="13"/>
+      <c r="GW112" s="13"/>
+      <c r="GX112" s="13"/>
+      <c r="GY112" s="13"/>
+      <c r="GZ112" s="13"/>
+      <c r="HA112" s="13"/>
+      <c r="HB112" s="13"/>
+      <c r="HC112" s="13"/>
+      <c r="HD112" s="13"/>
+      <c r="HE112" s="13"/>
+      <c r="HF112" s="13"/>
+      <c r="HG112" s="13"/>
+      <c r="HH112" s="13"/>
+      <c r="HI112" s="13"/>
+      <c r="HJ112" s="13"/>
+      <c r="HK112" s="13"/>
+      <c r="HL112" s="13"/>
+      <c r="HM112" s="13"/>
+      <c r="HN112" s="13"/>
+      <c r="HO112" s="13"/>
+      <c r="HP112" s="13"/>
+      <c r="HQ112" s="13"/>
+      <c r="HR112" s="13"/>
+      <c r="HS112" s="13"/>
+      <c r="HT112" s="13"/>
+      <c r="HU112" s="13"/>
+      <c r="HV112" s="13"/>
+      <c r="HW112" s="13"/>
+      <c r="HX112" s="13"/>
+      <c r="HY112" s="13"/>
+      <c r="HZ112" s="13"/>
+      <c r="IA112" s="13"/>
+      <c r="IB112" s="13"/>
+      <c r="IC112" s="13"/>
+      <c r="ID112" s="13"/>
+      <c r="IE112" s="13"/>
+      <c r="IF112" s="13"/>
+      <c r="IG112" s="13"/>
+      <c r="IH112" s="13"/>
+      <c r="II112" s="13"/>
+      <c r="IJ112" s="13"/>
+      <c r="IK112" s="13"/>
+      <c r="IL112" s="13"/>
+      <c r="IM112" s="13"/>
+      <c r="IN112" s="13"/>
+      <c r="IO112" s="13"/>
+      <c r="IP112" s="13"/>
+      <c r="IQ112" s="13"/>
+      <c r="IR112" s="13"/>
+      <c r="IS112" s="13"/>
+      <c r="IT112" s="13"/>
+      <c r="IU112" s="13"/>
+      <c r="IV112" s="13"/>
+      <c r="IW112" s="13"/>
+      <c r="IX112" s="13"/>
+      <c r="IY112" s="13"/>
+      <c r="IZ112" s="13"/>
+      <c r="JA112" s="13"/>
+      <c r="JB112" s="13"/>
+      <c r="JC112" s="13"/>
+      <c r="JD112" s="13"/>
+      <c r="JE112" s="13"/>
+      <c r="JF112" s="13"/>
+      <c r="JG112" s="13"/>
+      <c r="JH112" s="13"/>
+      <c r="JI112" s="13"/>
+      <c r="JJ112" s="13"/>
+      <c r="JK112" s="13"/>
+      <c r="JL112" s="13"/>
+      <c r="JM112" s="13"/>
+      <c r="JN112" s="13"/>
+      <c r="JO112" s="13"/>
+      <c r="JP112" s="13"/>
+      <c r="JQ112" s="13"/>
+      <c r="JR112" s="13"/>
+      <c r="JS112" s="13"/>
+      <c r="JT112" s="13"/>
+      <c r="JU112" s="13"/>
+      <c r="JV112" s="13"/>
+      <c r="JW112" s="13"/>
+      <c r="JX112" s="13"/>
+      <c r="JY112" s="13"/>
+      <c r="JZ112" s="13"/>
+      <c r="KA112" s="13"/>
+      <c r="KB112" s="13"/>
+      <c r="KC112" s="13"/>
+      <c r="KD112" s="13"/>
+      <c r="KE112" s="13"/>
+      <c r="KF112" s="13"/>
+      <c r="KG112" s="13"/>
+      <c r="KH112" s="13"/>
+      <c r="KI112" s="13"/>
+      <c r="KJ112" s="13"/>
+      <c r="KK112" s="13"/>
+      <c r="KL112" s="13"/>
+      <c r="KM112" s="13"/>
+      <c r="KN112" s="13"/>
+      <c r="KO112" s="13"/>
+      <c r="KP112" s="13"/>
+      <c r="KQ112" s="13"/>
+      <c r="KR112" s="13"/>
+      <c r="KS112" s="13"/>
+      <c r="KT112" s="13"/>
+      <c r="KU112" s="13"/>
+      <c r="KV112" s="13"/>
+      <c r="KW112" s="13"/>
+      <c r="KX112" s="13"/>
+      <c r="KY112" s="13"/>
+      <c r="KZ112" s="13"/>
+      <c r="LA112" s="13"/>
+      <c r="LB112" s="13"/>
+      <c r="LC112" s="13"/>
+      <c r="LD112" s="13"/>
+      <c r="LE112" s="13"/>
+      <c r="LF112" s="13"/>
+      <c r="LG112" s="13"/>
+      <c r="LH112" s="13"/>
+      <c r="LI112" s="13"/>
+      <c r="LJ112" s="13"/>
+      <c r="LK112" s="13"/>
+      <c r="LL112" s="13"/>
+      <c r="LM112" s="13"/>
+      <c r="LN112" s="13"/>
+      <c r="LO112" s="13"/>
+      <c r="LP112" s="13"/>
+      <c r="LQ112" s="13"/>
+      <c r="LR112" s="13"/>
+      <c r="LS112" s="13"/>
+      <c r="LT112" s="13"/>
+      <c r="LU112" s="13"/>
+      <c r="LV112" s="13"/>
+      <c r="LW112" s="13"/>
+      <c r="LX112" s="13"/>
+      <c r="LY112" s="13"/>
+      <c r="LZ112" s="13"/>
+      <c r="MA112" s="13"/>
+      <c r="MB112" s="13"/>
+      <c r="MC112" s="13"/>
+      <c r="MD112" s="13"/>
+      <c r="ME112" s="13"/>
+      <c r="MF112" s="13"/>
+      <c r="MG112" s="13"/>
+      <c r="MH112" s="13"/>
+      <c r="MI112" s="13"/>
+      <c r="MJ112" s="13"/>
+      <c r="MK112" s="13"/>
+      <c r="ML112" s="13"/>
+      <c r="MM112" s="13"/>
+      <c r="MN112" s="13"/>
+      <c r="MO112" s="13"/>
+      <c r="MP112" s="13"/>
+      <c r="MQ112" s="13"/>
+      <c r="MR112" s="13"/>
+      <c r="MS112" s="13"/>
+      <c r="MT112" s="13"/>
+      <c r="MU112" s="13"/>
+      <c r="MV112" s="13"/>
+      <c r="MW112" s="13"/>
+      <c r="MX112" s="13"/>
+      <c r="MY112" s="13"/>
+      <c r="MZ112" s="13"/>
+      <c r="NA112" s="13"/>
+      <c r="NB112" s="13"/>
+      <c r="NC112" s="13"/>
+      <c r="ND112" s="13"/>
+      <c r="NE112" s="13"/>
+      <c r="NF112" s="13"/>
+      <c r="NG112" s="13"/>
+      <c r="NH112" s="13"/>
+      <c r="NI112" s="13"/>
+      <c r="NJ112" s="13"/>
+      <c r="NK112" s="13"/>
+      <c r="NL112" s="13"/>
+      <c r="NM112" s="13"/>
+      <c r="NN112" s="13"/>
+      <c r="NO112" s="13"/>
+      <c r="NP112" s="13"/>
+      <c r="NQ112" s="13"/>
+      <c r="NR112" s="13"/>
+      <c r="NS112" s="13"/>
+      <c r="NT112" s="13"/>
+      <c r="NU112" s="13"/>
+      <c r="NV112" s="13"/>
+      <c r="NW112" s="13"/>
+      <c r="NX112" s="13"/>
+      <c r="NY112" s="13"/>
+      <c r="NZ112" s="13"/>
+      <c r="OA112" s="13"/>
+      <c r="OB112" s="13"/>
+      <c r="OC112" s="13"/>
+      <c r="OD112" s="13"/>
+      <c r="OE112" s="13"/>
+      <c r="OF112" s="13"/>
+      <c r="OG112" s="13"/>
+      <c r="OH112" s="13"/>
+      <c r="OI112" s="13"/>
+      <c r="OJ112" s="13"/>
+      <c r="OK112" s="13"/>
+      <c r="OL112" s="13"/>
+      <c r="OM112" s="13"/>
+      <c r="ON112" s="13"/>
+      <c r="OO112" s="13"/>
+      <c r="OP112" s="13"/>
+      <c r="OQ112" s="13"/>
+      <c r="OR112" s="13"/>
+      <c r="OS112" s="13"/>
+      <c r="OT112" s="13"/>
+      <c r="OU112" s="13"/>
+      <c r="OV112" s="13"/>
+      <c r="OW112" s="13"/>
+      <c r="OX112" s="13"/>
+      <c r="OY112" s="13"/>
+      <c r="OZ112" s="13"/>
+      <c r="PA112" s="13"/>
+      <c r="PB112" s="13"/>
+      <c r="PC112" s="13"/>
+      <c r="PD112" s="13"/>
+      <c r="PE112" s="13"/>
+      <c r="PF112" s="13"/>
+      <c r="PG112" s="13"/>
+      <c r="PH112" s="13"/>
+      <c r="PI112" s="13"/>
+      <c r="PJ112" s="13"/>
+      <c r="PK112" s="13"/>
+      <c r="PL112" s="13"/>
+      <c r="PM112" s="13"/>
+      <c r="PN112" s="13"/>
+      <c r="PO112" s="13"/>
+      <c r="PP112" s="13"/>
+      <c r="PQ112" s="13"/>
+      <c r="PR112" s="13"/>
+      <c r="PS112" s="13"/>
+      <c r="PT112" s="13"/>
+      <c r="PU112" s="13"/>
+      <c r="PV112" s="13"/>
+      <c r="PW112" s="13"/>
+      <c r="PX112" s="13"/>
+      <c r="PY112" s="13"/>
+      <c r="PZ112" s="13"/>
+      <c r="QA112" s="13"/>
+      <c r="QB112" s="13"/>
+      <c r="QC112" s="13"/>
+      <c r="QD112" s="13"/>
+      <c r="QE112" s="13"/>
+      <c r="QF112" s="13"/>
+      <c r="QG112" s="13"/>
+      <c r="QH112" s="13"/>
+      <c r="QI112" s="13"/>
+      <c r="QJ112" s="13"/>
+      <c r="QK112" s="13"/>
+      <c r="QL112" s="13"/>
+      <c r="QM112" s="13"/>
+      <c r="QN112" s="13"/>
+      <c r="QO112" s="13"/>
+      <c r="QP112" s="13"/>
+      <c r="QQ112" s="13"/>
+      <c r="QR112" s="13"/>
+      <c r="QS112" s="13"/>
+      <c r="QT112" s="13"/>
+      <c r="QU112" s="13"/>
+      <c r="QV112" s="13"/>
+      <c r="QW112" s="13"/>
+      <c r="QX112" s="13"/>
+      <c r="QY112" s="13"/>
+      <c r="QZ112" s="13"/>
+      <c r="RA112" s="13"/>
+      <c r="RB112" s="13"/>
+      <c r="RC112" s="13"/>
+      <c r="RD112" s="13"/>
+      <c r="RE112" s="13"/>
+      <c r="RF112" s="13"/>
+      <c r="RG112" s="13"/>
+      <c r="RH112" s="13"/>
+      <c r="RI112" s="13"/>
+      <c r="RJ112" s="13"/>
+      <c r="RK112" s="13"/>
+      <c r="RL112" s="13"/>
+      <c r="RM112" s="13"/>
+      <c r="RN112" s="13"/>
+      <c r="RO112" s="13"/>
+      <c r="RP112" s="13"/>
+      <c r="RQ112" s="13"/>
+      <c r="RR112" s="13"/>
+      <c r="RS112" s="13"/>
+      <c r="RT112" s="13"/>
+      <c r="RU112" s="13"/>
+      <c r="RV112" s="13"/>
+      <c r="RW112" s="13"/>
+      <c r="RX112" s="13"/>
+      <c r="RY112" s="13"/>
+      <c r="RZ112" s="13"/>
+      <c r="SA112" s="13"/>
+      <c r="SB112" s="13"/>
+      <c r="SC112" s="13"/>
+      <c r="SD112" s="13"/>
+      <c r="SE112" s="13"/>
+      <c r="SF112" s="13"/>
+      <c r="SG112" s="13"/>
+      <c r="SH112" s="13"/>
+      <c r="SI112" s="13"/>
+      <c r="SJ112" s="13"/>
+      <c r="SK112" s="13"/>
+      <c r="SL112" s="13"/>
+      <c r="SM112" s="13"/>
+      <c r="SN112" s="13"/>
+      <c r="SO112" s="13"/>
+      <c r="SP112" s="13"/>
+      <c r="SQ112" s="13"/>
+      <c r="SR112" s="13"/>
+      <c r="SS112" s="13"/>
+      <c r="ST112" s="13"/>
+      <c r="SU112" s="13"/>
+      <c r="SV112" s="13"/>
+      <c r="SW112" s="13"/>
+      <c r="SX112" s="13"/>
+      <c r="SY112" s="13"/>
+      <c r="SZ112" s="13"/>
+      <c r="TA112" s="13"/>
+      <c r="TB112" s="13"/>
+      <c r="TC112" s="13"/>
+      <c r="TD112" s="13"/>
+      <c r="TE112" s="13"/>
+      <c r="TF112" s="13"/>
+      <c r="TG112" s="13"/>
+      <c r="TH112" s="13"/>
+      <c r="TI112" s="13"/>
+      <c r="TJ112" s="13"/>
+      <c r="TK112" s="13"/>
+      <c r="TL112" s="13"/>
+      <c r="TM112" s="13"/>
+      <c r="TN112" s="13"/>
+      <c r="TO112" s="13"/>
+      <c r="TP112" s="13"/>
+      <c r="TQ112" s="13"/>
+      <c r="TR112" s="13"/>
+      <c r="TS112" s="13"/>
+      <c r="TT112" s="13"/>
+      <c r="TU112" s="13"/>
+      <c r="TV112" s="13"/>
+      <c r="TW112" s="13"/>
+      <c r="TX112" s="13"/>
+      <c r="TY112" s="13"/>
+      <c r="TZ112" s="13"/>
+      <c r="UA112" s="13"/>
+      <c r="UB112" s="13"/>
+      <c r="UC112" s="13"/>
+      <c r="UD112" s="13"/>
+      <c r="UE112" s="13"/>
+      <c r="UF112" s="13"/>
+      <c r="UG112" s="13"/>
+      <c r="UH112" s="13"/>
+      <c r="UI112" s="13"/>
+      <c r="UJ112" s="13"/>
+      <c r="UK112" s="13"/>
+      <c r="UL112" s="13"/>
+      <c r="UM112" s="13"/>
+      <c r="UN112" s="13"/>
+      <c r="UO112" s="13"/>
+      <c r="UP112" s="13"/>
+      <c r="UQ112" s="13"/>
+      <c r="UR112" s="13"/>
+      <c r="US112" s="13"/>
+      <c r="UT112" s="13"/>
+      <c r="UU112" s="13"/>
+      <c r="UV112" s="13"/>
+      <c r="UW112" s="13"/>
+      <c r="UX112" s="13"/>
+      <c r="UY112" s="13"/>
+      <c r="UZ112" s="13"/>
+      <c r="VA112" s="13"/>
+      <c r="VB112" s="13"/>
+      <c r="VC112" s="13"/>
+      <c r="VD112" s="13"/>
+      <c r="VE112" s="13"/>
+      <c r="VF112" s="13"/>
+      <c r="VG112" s="13"/>
+      <c r="VH112" s="13"/>
+      <c r="VI112" s="13"/>
+      <c r="VJ112" s="13"/>
+      <c r="VK112" s="13"/>
+      <c r="VL112" s="13"/>
+      <c r="VM112" s="13"/>
+      <c r="VN112" s="13"/>
+      <c r="VO112" s="13"/>
+      <c r="VP112" s="13"/>
+      <c r="VQ112" s="13"/>
+      <c r="VR112" s="13"/>
+      <c r="VS112" s="13"/>
+      <c r="VT112" s="13"/>
+      <c r="VU112" s="13"/>
+      <c r="VV112" s="13"/>
+      <c r="VW112" s="13"/>
+      <c r="VX112" s="13"/>
+      <c r="VY112" s="13"/>
+      <c r="VZ112" s="13"/>
+      <c r="WA112" s="13"/>
+      <c r="WB112" s="13"/>
+      <c r="WC112" s="13"/>
+      <c r="WD112" s="13"/>
+      <c r="WE112" s="13"/>
+      <c r="WF112" s="13"/>
+      <c r="WG112" s="13"/>
+      <c r="WH112" s="13"/>
+      <c r="WI112" s="13"/>
+      <c r="WJ112" s="13"/>
+      <c r="WK112" s="13"/>
+      <c r="WL112" s="13"/>
+      <c r="WM112" s="13"/>
+      <c r="WN112" s="13"/>
+      <c r="WO112" s="13"/>
+      <c r="WP112" s="13"/>
+      <c r="WQ112" s="13"/>
+      <c r="WR112" s="13"/>
+      <c r="WS112" s="13"/>
+      <c r="WT112" s="13"/>
+      <c r="WU112" s="13"/>
+      <c r="WV112" s="13"/>
+      <c r="WW112" s="13"/>
+      <c r="WX112" s="13"/>
+      <c r="WY112" s="13"/>
+      <c r="WZ112" s="13"/>
+      <c r="XA112" s="13"/>
+      <c r="XB112" s="13"/>
+      <c r="XC112" s="13"/>
+      <c r="XD112" s="13"/>
+      <c r="XE112" s="13"/>
+      <c r="XF112" s="13"/>
+      <c r="XG112" s="13"/>
+      <c r="XH112" s="13"/>
+      <c r="XI112" s="13"/>
+      <c r="XJ112" s="13"/>
+      <c r="XK112" s="13"/>
+      <c r="XL112" s="13"/>
+      <c r="XM112" s="13"/>
+      <c r="XN112" s="13"/>
+      <c r="XO112" s="13"/>
+      <c r="XP112" s="13"/>
+      <c r="XQ112" s="13"/>
+      <c r="XR112" s="13"/>
+      <c r="XS112" s="13"/>
+      <c r="XT112" s="13"/>
+      <c r="XU112" s="13"/>
+      <c r="XV112" s="13"/>
+      <c r="XW112" s="13"/>
+      <c r="XX112" s="13"/>
+      <c r="XY112" s="13"/>
+      <c r="XZ112" s="13"/>
+      <c r="YA112" s="13"/>
+      <c r="YB112" s="13"/>
+      <c r="YC112" s="13"/>
+      <c r="YD112" s="13"/>
+      <c r="YE112" s="13"/>
+      <c r="YF112" s="13"/>
+      <c r="YG112" s="13"/>
+      <c r="YH112" s="13"/>
+      <c r="YI112" s="13"/>
+      <c r="YJ112" s="13"/>
+      <c r="YK112" s="13"/>
+      <c r="YL112" s="13"/>
+      <c r="YM112" s="13"/>
+      <c r="YN112" s="13"/>
+      <c r="YO112" s="13"/>
+      <c r="YP112" s="13"/>
+      <c r="YQ112" s="13"/>
+      <c r="YR112" s="13"/>
+      <c r="YS112" s="13"/>
+      <c r="YT112" s="13"/>
+      <c r="YU112" s="13"/>
+      <c r="YV112" s="13"/>
+      <c r="YW112" s="13"/>
+      <c r="YX112" s="13"/>
+      <c r="YY112" s="13"/>
+      <c r="YZ112" s="13"/>
+      <c r="ZA112" s="13"/>
+      <c r="ZB112" s="13"/>
+      <c r="ZC112" s="13"/>
+      <c r="ZD112" s="13"/>
+      <c r="ZE112" s="13"/>
+      <c r="ZF112" s="13"/>
+      <c r="ZG112" s="13"/>
+      <c r="ZH112" s="13"/>
+      <c r="ZI112" s="13"/>
+      <c r="ZJ112" s="13"/>
+      <c r="ZK112" s="13"/>
+      <c r="ZL112" s="13"/>
+      <c r="ZM112" s="13"/>
+      <c r="ZN112" s="13"/>
+      <c r="ZO112" s="13"/>
+      <c r="ZP112" s="13"/>
+      <c r="ZQ112" s="13"/>
+      <c r="ZR112" s="13"/>
+      <c r="ZS112" s="13"/>
+      <c r="ZT112" s="13"/>
+      <c r="ZU112" s="13"/>
+      <c r="ZV112" s="13"/>
+      <c r="ZW112" s="13"/>
+      <c r="ZX112" s="13"/>
+      <c r="ZY112" s="13"/>
+      <c r="ZZ112" s="13"/>
+      <c r="AAA112" s="13"/>
+      <c r="AAB112" s="13"/>
+      <c r="AAC112" s="13"/>
+      <c r="AAD112" s="13"/>
+      <c r="AAE112" s="13"/>
+      <c r="AAF112" s="13"/>
+      <c r="AAG112" s="13"/>
+      <c r="AAH112" s="13"/>
+      <c r="AAI112" s="13"/>
+      <c r="AAJ112" s="13"/>
+      <c r="AAK112" s="13"/>
+      <c r="AAL112" s="13"/>
+      <c r="AAM112" s="13"/>
+      <c r="AAN112" s="13"/>
+      <c r="AAO112" s="13"/>
+      <c r="AAP112" s="13"/>
+      <c r="AAQ112" s="13"/>
+      <c r="AAR112" s="13"/>
+      <c r="AAS112" s="13"/>
+      <c r="AAT112" s="13"/>
+      <c r="AAU112" s="13"/>
+      <c r="AAV112" s="13"/>
+      <c r="AAW112" s="13"/>
+      <c r="AAX112" s="13"/>
+      <c r="AAY112" s="13"/>
+      <c r="AAZ112" s="13"/>
+      <c r="ABA112" s="13"/>
+      <c r="ABB112" s="13"/>
+      <c r="ABC112" s="13"/>
+      <c r="ABD112" s="13"/>
+      <c r="ABE112" s="13"/>
+      <c r="ABF112" s="13"/>
+      <c r="ABG112" s="13"/>
+      <c r="ABH112" s="13"/>
+      <c r="ABI112" s="13"/>
+      <c r="ABJ112" s="13"/>
+      <c r="ABK112" s="13"/>
+      <c r="ABL112" s="13"/>
+      <c r="ABM112" s="13"/>
+      <c r="ABN112" s="13"/>
+      <c r="ABO112" s="13"/>
+      <c r="ABP112" s="13"/>
+      <c r="ABQ112" s="13"/>
+      <c r="ABR112" s="13"/>
+      <c r="ABS112" s="13"/>
+      <c r="ABT112" s="13"/>
+      <c r="ABU112" s="13"/>
+      <c r="ABV112" s="13"/>
+      <c r="ABW112" s="13"/>
+      <c r="ABX112" s="13"/>
+      <c r="ABY112" s="13"/>
+      <c r="ABZ112" s="13"/>
+      <c r="ACA112" s="13"/>
+      <c r="ACB112" s="13"/>
+      <c r="ACC112" s="13"/>
+      <c r="ACD112" s="13"/>
+      <c r="ACE112" s="13"/>
+      <c r="ACF112" s="13"/>
+      <c r="ACG112" s="13"/>
+      <c r="ACH112" s="13"/>
+      <c r="ACI112" s="13"/>
+      <c r="ACJ112" s="13"/>
+      <c r="ACK112" s="13"/>
+      <c r="ACL112" s="13"/>
+      <c r="ACM112" s="13"/>
+      <c r="ACN112" s="13"/>
+      <c r="ACO112" s="13"/>
+      <c r="ACP112" s="13"/>
+      <c r="ACQ112" s="13"/>
+      <c r="ACR112" s="13"/>
+      <c r="ACS112" s="13"/>
+      <c r="ACT112" s="13"/>
+      <c r="ACU112" s="13"/>
+      <c r="ACV112" s="13"/>
+      <c r="ACW112" s="13"/>
+      <c r="ACX112" s="13"/>
+      <c r="ACY112" s="13"/>
+      <c r="ACZ112" s="13"/>
+      <c r="ADA112" s="13"/>
+      <c r="ADB112" s="13"/>
+      <c r="ADC112" s="13"/>
+      <c r="ADD112" s="13"/>
+      <c r="ADE112" s="13"/>
+      <c r="ADF112" s="13"/>
+      <c r="ADG112" s="13"/>
+      <c r="ADH112" s="13"/>
+      <c r="ADI112" s="13"/>
+      <c r="ADJ112" s="13"/>
+      <c r="ADK112" s="13"/>
+      <c r="ADL112" s="13"/>
+      <c r="ADM112" s="13"/>
+      <c r="ADN112" s="13"/>
+      <c r="ADO112" s="13"/>
+      <c r="ADP112" s="13"/>
+      <c r="ADQ112" s="13"/>
+      <c r="ADR112" s="13"/>
+      <c r="ADS112" s="13"/>
+      <c r="ADT112" s="13"/>
+      <c r="ADU112" s="13"/>
+      <c r="ADV112" s="13"/>
+      <c r="ADW112" s="13"/>
+      <c r="ADX112" s="13"/>
+      <c r="ADY112" s="13"/>
+      <c r="ADZ112" s="13"/>
+      <c r="AEA112" s="13"/>
+      <c r="AEB112" s="13"/>
+      <c r="AEC112" s="13"/>
+      <c r="AED112" s="13"/>
+      <c r="AEE112" s="13"/>
+      <c r="AEF112" s="13"/>
+      <c r="AEG112" s="13"/>
+      <c r="AEH112" s="13"/>
+      <c r="AEI112" s="13"/>
+      <c r="AEJ112" s="13"/>
+      <c r="AEK112" s="13"/>
+      <c r="AEL112" s="13"/>
+      <c r="AEM112" s="13"/>
+      <c r="AEN112" s="13"/>
+      <c r="AEO112" s="13"/>
+      <c r="AEP112" s="13"/>
+      <c r="AEQ112" s="13"/>
+      <c r="AER112" s="13"/>
+      <c r="AES112" s="13"/>
+      <c r="AET112" s="13"/>
+      <c r="AEU112" s="13"/>
+      <c r="AEV112" s="13"/>
+      <c r="AEW112" s="13"/>
+      <c r="AEX112" s="13"/>
+      <c r="AEY112" s="13"/>
+      <c r="AEZ112" s="13"/>
+      <c r="AFA112" s="13"/>
+      <c r="AFB112" s="13"/>
+      <c r="AFC112" s="13"/>
+      <c r="AFD112" s="13"/>
+      <c r="AFE112" s="13"/>
+      <c r="AFF112" s="13"/>
+      <c r="AFG112" s="13"/>
+      <c r="AFH112" s="13"/>
+      <c r="AFI112" s="13"/>
+      <c r="AFJ112" s="13"/>
+      <c r="AFK112" s="13"/>
+      <c r="AFL112" s="13"/>
+      <c r="AFM112" s="13"/>
+      <c r="AFN112" s="13"/>
+      <c r="AFO112" s="13"/>
+      <c r="AFP112" s="13"/>
+      <c r="AFQ112" s="13"/>
+      <c r="AFR112" s="13"/>
+      <c r="AFS112" s="13"/>
+      <c r="AFT112" s="13"/>
+      <c r="AFU112" s="13"/>
+      <c r="AFV112" s="13"/>
+      <c r="AFW112" s="13"/>
+      <c r="AFX112" s="13"/>
+      <c r="AFY112" s="13"/>
+      <c r="AFZ112" s="13"/>
+      <c r="AGA112" s="13"/>
+      <c r="AGB112" s="13"/>
+      <c r="AGC112" s="13"/>
+      <c r="AGD112" s="13"/>
+      <c r="AGE112" s="13"/>
+      <c r="AGF112" s="13"/>
+      <c r="AGG112" s="13"/>
+      <c r="AGH112" s="13"/>
+      <c r="AGI112" s="13"/>
+      <c r="AGJ112" s="13"/>
+      <c r="AGK112" s="13"/>
+      <c r="AGL112" s="13"/>
+      <c r="AGM112" s="13"/>
+      <c r="AGN112" s="13"/>
+      <c r="AGO112" s="13"/>
+      <c r="AGP112" s="13"/>
+      <c r="AGQ112" s="13"/>
+      <c r="AGR112" s="13"/>
+      <c r="AGS112" s="13"/>
+      <c r="AGT112" s="13"/>
+      <c r="AGU112" s="13"/>
+      <c r="AGV112" s="13"/>
+      <c r="AGW112" s="13"/>
+      <c r="AGX112" s="13"/>
+      <c r="AGY112" s="13"/>
+      <c r="AGZ112" s="13"/>
+      <c r="AHA112" s="13"/>
+      <c r="AHB112" s="13"/>
+      <c r="AHC112" s="13"/>
+      <c r="AHD112" s="13"/>
+      <c r="AHE112" s="13"/>
+      <c r="AHF112" s="13"/>
+      <c r="AHG112" s="13"/>
+      <c r="AHH112" s="13"/>
+      <c r="AHI112" s="13"/>
+      <c r="AHJ112" s="13"/>
+      <c r="AHK112" s="13"/>
+      <c r="AHL112" s="13"/>
+      <c r="AHM112" s="13"/>
+      <c r="AHN112" s="13"/>
+      <c r="AHO112" s="13"/>
+      <c r="AHP112" s="13"/>
+      <c r="AHQ112" s="13"/>
+      <c r="AHR112" s="13"/>
+      <c r="AHS112" s="13"/>
+      <c r="AHT112" s="13"/>
+      <c r="AHU112" s="13"/>
+      <c r="AHV112" s="13"/>
+      <c r="AHW112" s="13"/>
+      <c r="AHX112" s="13"/>
+      <c r="AHY112" s="13"/>
+      <c r="AHZ112" s="13"/>
+      <c r="AIA112" s="13"/>
+      <c r="AIB112" s="13"/>
+      <c r="AIC112" s="13"/>
+      <c r="AID112" s="13"/>
+      <c r="AIE112" s="13"/>
+      <c r="AIF112" s="13"/>
+      <c r="AIG112" s="13"/>
+      <c r="AIH112" s="13"/>
+      <c r="AII112" s="13"/>
+      <c r="AIJ112" s="13"/>
+      <c r="AIK112" s="13"/>
+      <c r="AIL112" s="13"/>
+      <c r="AIM112" s="13"/>
+      <c r="AIN112" s="13"/>
+      <c r="AIO112" s="13"/>
+      <c r="AIP112" s="13"/>
+      <c r="AIQ112" s="13"/>
+      <c r="AIR112" s="13"/>
+      <c r="AIS112" s="13"/>
+      <c r="AIT112" s="13"/>
+      <c r="AIU112" s="13"/>
+      <c r="AIV112" s="13"/>
+      <c r="AIW112" s="13"/>
+      <c r="AIX112" s="13"/>
+      <c r="AIY112" s="13"/>
+      <c r="AIZ112" s="13"/>
+      <c r="AJA112" s="13"/>
+      <c r="AJB112" s="13"/>
+      <c r="AJC112" s="13"/>
+      <c r="AJD112" s="13"/>
+      <c r="AJE112" s="13"/>
+      <c r="AJF112" s="13"/>
+      <c r="AJG112" s="13"/>
+      <c r="AJH112" s="13"/>
+      <c r="AJI112" s="13"/>
+      <c r="AJJ112" s="13"/>
+      <c r="AJK112" s="13"/>
+      <c r="AJL112" s="13"/>
+      <c r="AJM112" s="13"/>
+      <c r="AJN112" s="13"/>
+      <c r="AJO112" s="13"/>
+      <c r="AJP112" s="13"/>
+      <c r="AJQ112" s="13"/>
+      <c r="AJR112" s="13"/>
+      <c r="AJS112" s="13"/>
+      <c r="AJT112" s="13"/>
+      <c r="AJU112" s="13"/>
+      <c r="AJV112" s="13"/>
+      <c r="AJW112" s="13"/>
+      <c r="AJX112" s="13"/>
+      <c r="AJY112" s="13"/>
+      <c r="AJZ112" s="13"/>
+      <c r="AKA112" s="13"/>
+      <c r="AKB112" s="13"/>
+      <c r="AKC112" s="13"/>
+      <c r="AKD112" s="13"/>
+      <c r="AKE112" s="13"/>
+      <c r="AKF112" s="13"/>
+      <c r="AKG112" s="13"/>
+      <c r="AKH112" s="13"/>
+      <c r="AKI112" s="13"/>
+      <c r="AKJ112" s="13"/>
+      <c r="AKK112" s="13"/>
+      <c r="AKL112" s="13"/>
+      <c r="AKM112" s="13"/>
+      <c r="AKN112" s="13"/>
+      <c r="AKO112" s="13"/>
+      <c r="AKP112" s="13"/>
+      <c r="AKQ112" s="13"/>
+      <c r="AKR112" s="13"/>
+      <c r="AKS112" s="13"/>
+      <c r="AKT112" s="13"/>
+      <c r="AKU112" s="13"/>
+      <c r="AKV112" s="13"/>
+      <c r="AKW112" s="13"/>
+      <c r="AKX112" s="13"/>
+      <c r="AKY112" s="13"/>
+      <c r="AKZ112" s="13"/>
+      <c r="ALA112" s="13"/>
+      <c r="ALB112" s="13"/>
+      <c r="ALC112" s="13"/>
+      <c r="ALD112" s="13"/>
+      <c r="ALE112" s="13"/>
+      <c r="ALF112" s="13"/>
+      <c r="ALG112" s="13"/>
+      <c r="ALH112" s="13"/>
+      <c r="ALI112" s="13"/>
+      <c r="ALJ112" s="13"/>
+      <c r="ALK112" s="13"/>
+      <c r="ALL112" s="13"/>
+      <c r="ALM112" s="13"/>
+      <c r="ALN112" s="13"/>
+      <c r="ALO112" s="13"/>
+      <c r="ALP112" s="13"/>
+      <c r="ALQ112" s="13"/>
+      <c r="ALR112" s="13"/>
+      <c r="ALS112" s="13"/>
+      <c r="ALT112" s="13"/>
+      <c r="ALU112" s="13"/>
+      <c r="ALV112" s="13"/>
+      <c r="ALW112" s="13"/>
+      <c r="ALX112" s="13"/>
+      <c r="ALY112" s="13"/>
+      <c r="ALZ112" s="13"/>
+      <c r="AMA112" s="13"/>
+      <c r="AMB112" s="13"/>
+      <c r="AMC112" s="13"/>
+      <c r="AMD112" s="13"/>
+      <c r="AME112" s="13"/>
+      <c r="AMF112" s="13"/>
+      <c r="AMG112" s="13"/>
+      <c r="AMH112" s="13"/>
+      <c r="AMI112" s="13"/>
+      <c r="AMJ112" s="13"/>
+    </row>
+    <row r="113" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-    </row>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6807,21 +6805,21 @@
   </sheetPr>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="42.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="42.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -6855,13 +6853,13 @@
     </row>
     <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -6889,13 +6887,13 @@
     </row>
     <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -6951,13 +6949,13 @@
     </row>
     <row r="5" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -6985,13 +6983,13 @@
     </row>
     <row r="6" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -7019,13 +7017,13 @@
     </row>
     <row r="7" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -7053,13 +7051,13 @@
     </row>
     <row r="8" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -7087,13 +7085,13 @@
     </row>
     <row r="9" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="10"/>
@@ -7233,16 +7231,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="18" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="20"/>
@@ -7650,7 +7648,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7658,19 +7656,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -7696,20 +7694,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C2" s="23" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-03-22  12-51</v>
+        <v>2024-05-13  12-50</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>

--- a/Guild Digital/Example CHT application/forms/app/spot_check.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/spot_check.xlsx
@@ -1704,6 +1704,7 @@
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2050,8 +2051,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C90" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C84" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D110" activeCellId="0" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7701,7 +7702,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-05-13  12-50</v>
+        <v>2024-09-02  1-36</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>240</v>
